--- a/Apps/YouTubeAnalysis/Analysis/Content/Step01_TableDataAugmented.xlsx
+++ b/Apps/YouTubeAnalysis/Analysis/Content/Step01_TableDataAugmented.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1487" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="1268">
   <si>
     <t>Content</t>
   </si>
@@ -2265,6 +2265,450 @@
     <t>Education</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
     <t>VideoDuration</t>
   </si>
   <si>
@@ -2478,6 +2922,9 @@
     <t>55:14</t>
   </si>
   <si>
+    <t>6:59</t>
+  </si>
+  <si>
     <t>45:39</t>
   </si>
   <si>
@@ -2991,6 +3438,9 @@
     <t>22:54</t>
   </si>
   <si>
+    <t>14:37</t>
+  </si>
+  <si>
     <t>1:08:04</t>
   </si>
   <si>
@@ -3063,6 +3513,9 @@
     <t>19:23</t>
   </si>
   <si>
+    <t>5:05</t>
+  </si>
+  <si>
     <t>9:48</t>
   </si>
   <si>
@@ -3117,6 +3570,9 @@
     <t>30:19</t>
   </si>
   <si>
+    <t>43:50</t>
+  </si>
+  <si>
     <t>41:25</t>
   </si>
   <si>
@@ -3126,6 +3582,9 @@
     <t>4:23</t>
   </si>
   <si>
+    <t>11:55</t>
+  </si>
+  <si>
     <t>38:58</t>
   </si>
   <si>
@@ -3135,9 +3594,15 @@
     <t>4:32</t>
   </si>
   <si>
+    <t>4:44</t>
+  </si>
+  <si>
     <t>3:08</t>
   </si>
   <si>
+    <t>28:05</t>
+  </si>
+  <si>
     <t>16:16</t>
   </si>
   <si>
@@ -3195,6 +3660,9 @@
     <t>17:14</t>
   </si>
   <si>
+    <t>8:36</t>
+  </si>
+  <si>
     <t>10:45</t>
   </si>
   <si>
@@ -3228,6 +3696,9 @@
     <t>13:40</t>
   </si>
   <si>
+    <t>16:28</t>
+  </si>
+  <si>
     <t>4:17</t>
   </si>
   <si>
@@ -3264,12 +3735,18 @@
     <t>7:45</t>
   </si>
   <si>
+    <t>15:02</t>
+  </si>
+  <si>
     <t>4:12</t>
   </si>
   <si>
     <t>3:25</t>
   </si>
   <si>
+    <t>9:48</t>
+  </si>
+  <si>
     <t>29:50</t>
   </si>
   <si>
@@ -3282,12 +3759,18 @@
     <t>7:26</t>
   </si>
   <si>
+    <t>19:14</t>
+  </si>
+  <si>
     <t>9:29</t>
   </si>
   <si>
     <t>6:44</t>
   </si>
   <si>
+    <t>10:53</t>
+  </si>
+  <si>
     <t>1:37</t>
   </si>
   <si>
@@ -3306,6 +3789,9 @@
     <t>1:14</t>
   </si>
   <si>
+    <t>1:37</t>
+  </si>
+  <si>
     <t>1:49</t>
   </si>
   <si>
@@ -3318,7 +3804,13 @@
     <t>0:34</t>
   </si>
   <si>
+    <t>15:56</t>
+  </si>
+  <si>
     <t>1:48</t>
+  </si>
+  <si>
+    <t>1:03</t>
   </si>
   <si>
     <t>0:43</t>
@@ -3330,7 +3822,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -3369,24 +3861,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K370"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="true"/>
-    <col min="2" max="2" width="88.7109375" customWidth="true"/>
-    <col min="3" max="3" width="17.42578125" customWidth="true"/>
-    <col min="4" max="4" width="8.140625" customWidth="true"/>
-    <col min="5" max="5" width="18.140625" customWidth="true"/>
-    <col min="6" max="6" width="11.28515625" customWidth="true"/>
-    <col min="7" max="7" width="23.42578125" customWidth="true"/>
-    <col min="8" max="8" width="11.85546875" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
-    <col min="10" max="10" width="12.85546875" customWidth="true"/>
-    <col min="11" max="11" width="14.140625" customWidth="true"/>
+    <col min="1" max="1" width="15.44140625" customWidth="true"/>
+    <col min="2" max="2" width="83.2578125" customWidth="true"/>
+    <col min="3" max="3" width="15.984375" customWidth="true"/>
+    <col min="4" max="4" width="8.16796875" customWidth="true"/>
+    <col min="5" max="5" width="17.44140625" customWidth="true"/>
+    <col min="6" max="6" width="10.7109375" customWidth="true"/>
+    <col min="7" max="7" width="22.07421875" customWidth="true"/>
+    <col min="8" max="8" width="11.2578125" customWidth="true"/>
+    <col min="9" max="9" width="29.34765625" customWidth="true"/>
+    <col min="10" max="10" width="11.984375" customWidth="true"/>
+    <col min="11" max="11" width="13.2578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3421,7 +3910,7 @@
         <v>747</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>750</v>
+        <v>898</v>
       </c>
     </row>
     <row r="2">
@@ -3456,7 +3945,7 @@
         <v>748</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>751</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3">
@@ -3491,7 +3980,7 @@
         <v>748</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>752</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4">
@@ -3526,7 +4015,7 @@
         <v>749</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>753</v>
+        <v>901</v>
       </c>
     </row>
     <row r="5">
@@ -3558,10 +4047,10 @@
         <v>7.1399999999999997</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>754</v>
+        <v>902</v>
       </c>
     </row>
     <row r="6">
@@ -3593,10 +4082,10 @@
         <v>5.1900000000000004</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>755</v>
+        <v>903</v>
       </c>
     </row>
     <row r="7">
@@ -3628,10 +4117,10 @@
         <v>3.1499999999999999</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>756</v>
+        <v>904</v>
       </c>
     </row>
     <row r="8">
@@ -3663,10 +4152,10 @@
         <v>2.9700000000000002</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>757</v>
+        <v>905</v>
       </c>
     </row>
     <row r="9">
@@ -3698,10 +4187,10 @@
         <v>4.1600000000000001</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>758</v>
+        <v>906</v>
       </c>
     </row>
     <row r="10">
@@ -3733,10 +4222,10 @@
         <v>4.9199999999999999</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>759</v>
+        <v>907</v>
       </c>
     </row>
     <row r="11">
@@ -3768,10 +4257,10 @@
         <v>6.7400000000000002</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>760</v>
+        <v>908</v>
       </c>
     </row>
     <row r="12">
@@ -3803,10 +4292,10 @@
         <v>3.79</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>761</v>
+        <v>909</v>
       </c>
     </row>
     <row r="13">
@@ -3838,10 +4327,10 @@
         <v>7.9800000000000004</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>762</v>
+        <v>910</v>
       </c>
     </row>
     <row r="14">
@@ -3873,10 +4362,10 @@
         <v>5.1500000000000004</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>763</v>
+        <v>911</v>
       </c>
     </row>
     <row r="15">
@@ -3908,10 +4397,10 @@
         <v>5.9400000000000004</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>764</v>
+        <v>912</v>
       </c>
     </row>
     <row r="16">
@@ -3943,10 +4432,10 @@
         <v>8.3499999999999996</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>765</v>
+        <v>913</v>
       </c>
     </row>
     <row r="17">
@@ -3978,10 +4467,10 @@
         <v>4.0099999999999998</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>766</v>
+        <v>914</v>
       </c>
     </row>
     <row r="18">
@@ -4013,10 +4502,10 @@
         <v>8.6600000000000001</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>767</v>
+        <v>915</v>
       </c>
     </row>
     <row r="19">
@@ -4048,10 +4537,10 @@
         <v>4.1200000000000001</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>768</v>
+        <v>916</v>
       </c>
     </row>
     <row r="20">
@@ -4083,10 +4572,10 @@
         <v>5.0700000000000003</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>769</v>
+        <v>917</v>
       </c>
     </row>
     <row r="21">
@@ -4118,10 +4607,10 @@
         <v>3.6099999999999999</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>770</v>
+        <v>918</v>
       </c>
     </row>
     <row r="22">
@@ -4153,10 +4642,10 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>771</v>
+        <v>919</v>
       </c>
     </row>
     <row r="23">
@@ -4188,10 +4677,10 @@
         <v>4.4299999999999997</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>772</v>
+        <v>920</v>
       </c>
     </row>
     <row r="24">
@@ -4223,10 +4712,10 @@
         <v>4.2599999999999998</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>773</v>
+        <v>921</v>
       </c>
     </row>
     <row r="25">
@@ -4258,10 +4747,10 @@
         <v>3.6000000000000001</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>774</v>
+        <v>922</v>
       </c>
     </row>
     <row r="26">
@@ -4293,10 +4782,10 @@
         <v>5.71</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>775</v>
+        <v>923</v>
       </c>
     </row>
     <row r="27">
@@ -4328,10 +4817,10 @@
         <v>7.3700000000000001</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>776</v>
+        <v>924</v>
       </c>
     </row>
     <row r="28">
@@ -4363,10 +4852,10 @@
         <v>7.9400000000000004</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>777</v>
+        <v>925</v>
       </c>
     </row>
     <row r="29">
@@ -4398,10 +4887,10 @@
         <v>6.1900000000000004</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>778</v>
+        <v>926</v>
       </c>
     </row>
     <row r="30">
@@ -4433,10 +4922,10 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>779</v>
+        <v>927</v>
       </c>
     </row>
     <row r="31">
@@ -4468,10 +4957,10 @@
         <v>3.7000000000000002</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>780</v>
+        <v>928</v>
       </c>
     </row>
     <row r="32">
@@ -4503,10 +4992,10 @@
         <v>5</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>781</v>
+        <v>929</v>
       </c>
     </row>
     <row r="33">
@@ -4538,10 +5027,10 @@
         <v>10.359999999999999</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>782</v>
+        <v>930</v>
       </c>
     </row>
     <row r="34">
@@ -4573,10 +5062,10 @@
         <v>7.0700000000000003</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>783</v>
+        <v>931</v>
       </c>
     </row>
     <row r="35">
@@ -4608,10 +5097,10 @@
         <v>3.9300000000000002</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>784</v>
+        <v>932</v>
       </c>
     </row>
     <row r="36">
@@ -4643,10 +5132,10 @@
         <v>6.0499999999999998</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>785</v>
+        <v>933</v>
       </c>
     </row>
     <row r="37">
@@ -4678,10 +5167,10 @@
         <v>4.5700000000000003</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>786</v>
+        <v>934</v>
       </c>
     </row>
     <row r="38">
@@ -4713,10 +5202,10 @@
         <v>9.1699999999999999</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>787</v>
+        <v>935</v>
       </c>
     </row>
     <row r="39">
@@ -4748,10 +5237,10 @@
         <v>5.8700000000000001</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>788</v>
+        <v>936</v>
       </c>
     </row>
     <row r="40">
@@ -4783,10 +5272,10 @@
         <v>9.9199999999999999</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>789</v>
+        <v>937</v>
       </c>
     </row>
     <row r="41">
@@ -4818,10 +5307,10 @@
         <v>5.4299999999999997</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>790</v>
+        <v>938</v>
       </c>
     </row>
     <row r="42">
@@ -4853,10 +5342,10 @@
         <v>3.6299999999999999</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>791</v>
+        <v>939</v>
       </c>
     </row>
     <row r="43">
@@ -4888,10 +5377,10 @@
         <v>8.6699999999999999</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>792</v>
+        <v>940</v>
       </c>
     </row>
     <row r="44">
@@ -4923,10 +5412,10 @@
         <v>3.5699999999999998</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>793</v>
+        <v>941</v>
       </c>
     </row>
     <row r="45">
@@ -4958,10 +5447,10 @@
         <v>5.5999999999999996</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>794</v>
+        <v>942</v>
       </c>
     </row>
     <row r="46">
@@ -4993,10 +5482,10 @@
         <v>4.7400000000000002</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>795</v>
+        <v>943</v>
       </c>
     </row>
     <row r="47">
@@ -5028,10 +5517,10 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>796</v>
+        <v>944</v>
       </c>
     </row>
     <row r="48">
@@ -5063,10 +5552,10 @@
         <v>4.0800000000000001</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>797</v>
+        <v>945</v>
       </c>
     </row>
     <row r="49">
@@ -5098,10 +5587,10 @@
         <v>6.1900000000000004</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>798</v>
+        <v>946</v>
       </c>
     </row>
     <row r="50">
@@ -5133,10 +5622,10 @@
         <v>4.7199999999999998</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>799</v>
+        <v>947</v>
       </c>
     </row>
     <row r="51">
@@ -5168,10 +5657,10 @@
         <v>3.21</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>800</v>
+        <v>948</v>
       </c>
     </row>
     <row r="52">
@@ -5203,10 +5692,10 @@
         <v>3.6099999999999999</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>801</v>
+        <v>949</v>
       </c>
     </row>
     <row r="53">
@@ -5238,10 +5727,10 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>748</v>
+        <v>768</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>802</v>
+        <v>950</v>
       </c>
     </row>
     <row r="54">
@@ -5273,10 +5762,10 @@
         <v>3.8199999999999998</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>749</v>
+        <v>769</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>803</v>
+        <v>951</v>
       </c>
     </row>
     <row r="55">
@@ -5308,10 +5797,10 @@
         <v>3.4199999999999999</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>749</v>
+        <v>769</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>804</v>
+        <v>952</v>
       </c>
     </row>
     <row r="56">
@@ -5343,10 +5832,10 @@
         <v>8.0899999999999999</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>749</v>
+        <v>769</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>805</v>
+        <v>953</v>
       </c>
     </row>
     <row r="57">
@@ -5378,10 +5867,10 @@
         <v>3.46</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>806</v>
+        <v>954</v>
       </c>
     </row>
     <row r="58">
@@ -5413,10 +5902,10 @@
         <v>1.05</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>807</v>
+        <v>955</v>
       </c>
     </row>
     <row r="59">
@@ -5448,10 +5937,10 @@
         <v>5.1200000000000001</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>808</v>
+        <v>956</v>
       </c>
     </row>
     <row r="60">
@@ -5483,10 +5972,10 @@
         <v>5.0099999999999998</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>809</v>
+        <v>957</v>
       </c>
     </row>
     <row r="61">
@@ -5518,10 +6007,10 @@
         <v>6.1699999999999999</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>810</v>
+        <v>958</v>
       </c>
     </row>
     <row r="62">
@@ -5553,10 +6042,10 @@
         <v>4.8700000000000001</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>811</v>
+        <v>959</v>
       </c>
     </row>
     <row r="63">
@@ -5588,10 +6077,10 @@
         <v>7.46</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>812</v>
+        <v>960</v>
       </c>
     </row>
     <row r="64">
@@ -5623,10 +6112,10 @@
         <v>2.96</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>813</v>
+        <v>961</v>
       </c>
     </row>
     <row r="65">
@@ -5658,10 +6147,10 @@
         <v>6.5700000000000003</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>814</v>
+        <v>962</v>
       </c>
     </row>
     <row r="66">
@@ -5693,10 +6182,10 @@
         <v>5.4100000000000001</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>748</v>
+        <v>772</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>815</v>
+        <v>963</v>
       </c>
     </row>
     <row r="67">
@@ -5728,10 +6217,10 @@
         <v>4</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>816</v>
+        <v>964</v>
       </c>
     </row>
     <row r="68">
@@ -5763,10 +6252,10 @@
         <v>3.3300000000000001</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>749</v>
+        <v>773</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>817</v>
+        <v>965</v>
       </c>
     </row>
     <row r="69">
@@ -5798,10 +6287,10 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>748</v>
+        <v>774</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>818</v>
+        <v>966</v>
       </c>
     </row>
     <row r="70">
@@ -5833,10 +6322,10 @@
         <v>3.46</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>749</v>
+        <v>775</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>819</v>
+        <v>967</v>
       </c>
     </row>
     <row r="71">
@@ -5868,10 +6357,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>749</v>
+        <v>775</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>820</v>
+        <v>968</v>
       </c>
     </row>
     <row r="72">
@@ -5903,10 +6392,10 @@
         <v>5.1399999999999997</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>748</v>
+        <v>776</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>764</v>
+        <v>969</v>
       </c>
     </row>
     <row r="73">
@@ -5938,10 +6427,10 @@
         <v>3</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>821</v>
+        <v>970</v>
       </c>
     </row>
     <row r="74">
@@ -5973,10 +6462,10 @@
         <v>2.98</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>822</v>
+        <v>971</v>
       </c>
     </row>
     <row r="75">
@@ -6008,10 +6497,10 @@
         <v>3.1600000000000001</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>823</v>
+        <v>972</v>
       </c>
     </row>
     <row r="76">
@@ -6043,10 +6532,10 @@
         <v>5.4299999999999997</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>748</v>
+        <v>778</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>824</v>
+        <v>973</v>
       </c>
     </row>
     <row r="77">
@@ -6078,10 +6567,10 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>749</v>
+        <v>779</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>825</v>
+        <v>974</v>
       </c>
     </row>
     <row r="78">
@@ -6113,10 +6602,10 @@
         <v>4.2000000000000002</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>749</v>
+        <v>779</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>826</v>
+        <v>975</v>
       </c>
     </row>
     <row r="79">
@@ -6148,10 +6637,10 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>827</v>
+        <v>976</v>
       </c>
     </row>
     <row r="80">
@@ -6183,10 +6672,10 @@
         <v>3</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>749</v>
+        <v>781</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>828</v>
+        <v>977</v>
       </c>
     </row>
     <row r="81">
@@ -6218,10 +6707,10 @@
         <v>3.7200000000000002</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>748</v>
+        <v>782</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>829</v>
+        <v>978</v>
       </c>
     </row>
     <row r="82">
@@ -6253,10 +6742,10 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>748</v>
+        <v>782</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>830</v>
+        <v>979</v>
       </c>
     </row>
     <row r="83">
@@ -6288,10 +6777,10 @@
         <v>6.0800000000000001</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>749</v>
+        <v>783</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>831</v>
+        <v>980</v>
       </c>
     </row>
     <row r="84">
@@ -6323,10 +6812,10 @@
         <v>4.7199999999999998</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>749</v>
+        <v>783</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>832</v>
+        <v>981</v>
       </c>
     </row>
     <row r="85">
@@ -6358,10 +6847,10 @@
         <v>4.4500000000000002</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>749</v>
+        <v>783</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>833</v>
+        <v>982</v>
       </c>
     </row>
     <row r="86">
@@ -6393,10 +6882,10 @@
         <v>6.0199999999999996</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>748</v>
+        <v>784</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>834</v>
+        <v>983</v>
       </c>
     </row>
     <row r="87">
@@ -6428,10 +6917,10 @@
         <v>4.4699999999999998</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>749</v>
+        <v>785</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>835</v>
+        <v>984</v>
       </c>
     </row>
     <row r="88">
@@ -6463,10 +6952,10 @@
         <v>6.7199999999999998</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>748</v>
+        <v>786</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>836</v>
+        <v>985</v>
       </c>
     </row>
     <row r="89">
@@ -6498,10 +6987,10 @@
         <v>4.0899999999999999</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>837</v>
+        <v>986</v>
       </c>
     </row>
     <row r="90">
@@ -6533,10 +7022,10 @@
         <v>3.4300000000000002</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>838</v>
+        <v>987</v>
       </c>
     </row>
     <row r="91">
@@ -6568,10 +7057,10 @@
         <v>3.2799999999999998</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>839</v>
+        <v>988</v>
       </c>
     </row>
     <row r="92">
@@ -6603,10 +7092,10 @@
         <v>5.3799999999999999</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>840</v>
+        <v>989</v>
       </c>
     </row>
     <row r="93">
@@ -6638,10 +7127,10 @@
         <v>3.7999999999999998</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>841</v>
+        <v>990</v>
       </c>
     </row>
     <row r="94">
@@ -6673,10 +7162,10 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>842</v>
+        <v>991</v>
       </c>
     </row>
     <row r="95">
@@ -6708,10 +7197,10 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>843</v>
+        <v>992</v>
       </c>
     </row>
     <row r="96">
@@ -6743,10 +7232,10 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>844</v>
+        <v>993</v>
       </c>
     </row>
     <row r="97">
@@ -6778,10 +7267,10 @@
         <v>3.5</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>845</v>
+        <v>994</v>
       </c>
     </row>
     <row r="98">
@@ -6813,10 +7302,10 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>846</v>
+        <v>995</v>
       </c>
     </row>
     <row r="99">
@@ -6848,10 +7337,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>749</v>
+        <v>787</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>847</v>
+        <v>996</v>
       </c>
     </row>
     <row r="100">
@@ -6883,10 +7372,10 @@
         <v>7.2199999999999998</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>748</v>
+        <v>788</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>848</v>
+        <v>997</v>
       </c>
     </row>
     <row r="101">
@@ -6918,10 +7407,10 @@
         <v>2.8500000000000001</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>749</v>
+        <v>789</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>849</v>
+        <v>998</v>
       </c>
     </row>
     <row r="102">
@@ -6953,10 +7442,10 @@
         <v>6.8600000000000003</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>748</v>
+        <v>790</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>850</v>
+        <v>999</v>
       </c>
     </row>
     <row r="103">
@@ -6988,10 +7477,10 @@
         <v>3.5499999999999998</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>749</v>
+        <v>791</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>851</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="104">
@@ -7023,10 +7512,10 @@
         <v>5.9900000000000002</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>749</v>
+        <v>791</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>852</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="105">
@@ -7058,10 +7547,10 @@
         <v>3.8100000000000001</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>748</v>
+        <v>792</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>853</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="106">
@@ -7093,10 +7582,10 @@
         <v>4.3700000000000001</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>748</v>
+        <v>792</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>854</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="107">
@@ -7128,10 +7617,10 @@
         <v>2.52</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>749</v>
+        <v>793</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>855</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="108">
@@ -7163,10 +7652,10 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>749</v>
+        <v>793</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>856</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="109">
@@ -7198,10 +7687,10 @@
         <v>3.21</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>749</v>
+        <v>793</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>857</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="110">
@@ -7233,10 +7722,10 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>749</v>
+        <v>793</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>858</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="111">
@@ -7268,10 +7757,10 @@
         <v>5.8399999999999999</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>749</v>
+        <v>793</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>859</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="112">
@@ -7303,10 +7792,10 @@
         <v>3.52</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>748</v>
+        <v>794</v>
       </c>
       <c r="K112" s="0" t="s">
-        <v>860</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="113">
@@ -7338,10 +7827,10 @@
         <v>6.1799999999999997</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>861</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="114">
@@ -7373,10 +7862,10 @@
         <v>2.6299999999999999</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K114" s="0" t="s">
-        <v>862</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="115">
@@ -7408,10 +7897,10 @@
         <v>4.4199999999999999</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K115" s="0" t="s">
-        <v>863</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="116">
@@ -7443,10 +7932,10 @@
         <v>3.1600000000000001</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K116" s="0" t="s">
-        <v>864</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="117">
@@ -7478,10 +7967,10 @@
         <v>3.8399999999999999</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>865</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="118">
@@ -7513,10 +8002,10 @@
         <v>3.96</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K118" s="0" t="s">
-        <v>866</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="119">
@@ -7548,10 +8037,10 @@
         <v>6.8200000000000003</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>867</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="120">
@@ -7583,10 +8072,10 @@
         <v>2.6000000000000001</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K120" s="0" t="s">
-        <v>868</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="121">
@@ -7618,10 +8107,10 @@
         <v>3.6400000000000001</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>869</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="122">
@@ -7653,10 +8142,10 @@
         <v>3.2200000000000002</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K122" s="0" t="s">
-        <v>870</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="123">
@@ -7688,10 +8177,10 @@
         <v>2.7799999999999998</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K123" s="0" t="s">
-        <v>871</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="124">
@@ -7723,10 +8212,10 @@
         <v>3.8900000000000001</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K124" s="0" t="s">
-        <v>872</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="125">
@@ -7758,10 +8247,10 @@
         <v>2.1400000000000001</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K125" s="0" t="s">
-        <v>873</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="126">
@@ -7793,10 +8282,10 @@
         <v>2.75</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>749</v>
+        <v>795</v>
       </c>
       <c r="K126" s="0" t="s">
-        <v>874</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="127">
@@ -7828,10 +8317,10 @@
         <v>1.3799999999999999</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
       <c r="K127" s="0" t="s">
-        <v>875</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="128">
@@ -7863,10 +8352,10 @@
         <v>3.21</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
       <c r="K128" s="0" t="s">
-        <v>876</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="129">
@@ -7898,10 +8387,10 @@
         <v>2.5600000000000001</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
       <c r="K129" s="0" t="s">
-        <v>877</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="130">
@@ -7933,10 +8422,10 @@
         <v>4.1799999999999997</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>748</v>
+        <v>796</v>
       </c>
       <c r="K130" s="0" t="s">
-        <v>878</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="131">
@@ -7968,10 +8457,10 @@
         <v>3.02</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>879</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="132">
@@ -8003,10 +8492,10 @@
         <v>2.71</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="K132" s="0" t="s">
-        <v>880</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="133">
@@ -8038,10 +8527,10 @@
         <v>2.52</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="K133" s="0" t="s">
-        <v>881</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="134">
@@ -8073,10 +8562,10 @@
         <v>3.6899999999999999</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="K134" s="0" t="s">
-        <v>882</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="135">
@@ -8108,10 +8597,10 @@
         <v>3.3399999999999999</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="K135" s="0" t="s">
-        <v>883</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="136">
@@ -8143,10 +8632,10 @@
         <v>3.5600000000000001</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="K136" s="0" t="s">
-        <v>884</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="137">
@@ -8178,10 +8667,10 @@
         <v>3.0899999999999999</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="K137" s="0" t="s">
-        <v>885</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="138">
@@ -8213,10 +8702,10 @@
         <v>3.0899999999999999</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>749</v>
+        <v>797</v>
       </c>
       <c r="K138" s="0" t="s">
-        <v>886</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="139">
@@ -8248,10 +8737,10 @@
         <v>4.6600000000000001</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>748</v>
+        <v>798</v>
       </c>
       <c r="K139" s="0" t="s">
-        <v>887</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="140">
@@ -8283,10 +8772,10 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>748</v>
+        <v>798</v>
       </c>
       <c r="K140" s="0" t="s">
-        <v>888</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="141">
@@ -8318,10 +8807,10 @@
         <v>3.7200000000000002</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>749</v>
+        <v>799</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>889</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="142">
@@ -8353,10 +8842,10 @@
         <v>2.9900000000000002</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>748</v>
+        <v>800</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>890</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="143">
@@ -8388,10 +8877,10 @@
         <v>3.1800000000000002</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>749</v>
+        <v>801</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>891</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="144">
@@ -8423,10 +8912,10 @@
         <v>3.5600000000000001</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>749</v>
+        <v>801</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>892</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="145">
@@ -8458,10 +8947,10 @@
         <v>4.3700000000000001</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>749</v>
+        <v>801</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>893</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="146">
@@ -8493,10 +8982,10 @@
         <v>1.48</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>748</v>
+        <v>802</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>894</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="147">
@@ -8528,10 +9017,10 @@
         <v>2.3999999999999999</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>749</v>
+        <v>803</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>895</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="148">
@@ -8563,10 +9052,10 @@
         <v>2.6200000000000001</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>749</v>
+        <v>803</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>896</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="149">
@@ -8598,10 +9087,10 @@
         <v>6.1200000000000001</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>748</v>
+        <v>804</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>897</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="150">
@@ -8633,10 +9122,10 @@
         <v>3.8599999999999999</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>749</v>
+        <v>805</v>
       </c>
       <c r="K150" s="0" t="s">
-        <v>898</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="151">
@@ -8668,10 +9157,10 @@
         <v>2.1899999999999999</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>748</v>
+        <v>806</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>899</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="152">
@@ -8703,10 +9192,10 @@
         <v>1.79</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>749</v>
+        <v>807</v>
       </c>
       <c r="K152" s="0" t="s">
-        <v>900</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="153">
@@ -8738,10 +9227,10 @@
         <v>4.9900000000000002</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>749</v>
+        <v>807</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>901</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="154">
@@ -8773,10 +9262,10 @@
         <v>3.79</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>749</v>
+        <v>807</v>
       </c>
       <c r="K154" s="0" t="s">
-        <v>902</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="155">
@@ -8808,10 +9297,10 @@
         <v>2.29</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>749</v>
+        <v>807</v>
       </c>
       <c r="K155" s="0" t="s">
-        <v>903</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="156">
@@ -8843,10 +9332,10 @@
         <v>3.75</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>748</v>
+        <v>808</v>
       </c>
       <c r="K156" s="0" t="s">
-        <v>904</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="157">
@@ -8878,10 +9367,10 @@
         <v>2.1000000000000001</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="K157" s="0" t="s">
-        <v>905</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="158">
@@ -8913,10 +9402,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="K158" s="0" t="s">
-        <v>906</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="159">
@@ -8948,10 +9437,10 @@
         <v>2.4399999999999999</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="K159" s="0" t="s">
-        <v>907</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="160">
@@ -8983,10 +9472,10 @@
         <v>3.8100000000000001</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>749</v>
+        <v>809</v>
       </c>
       <c r="K160" s="0" t="s">
-        <v>908</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="161">
@@ -9018,10 +9507,10 @@
         <v>4.2000000000000002</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>748</v>
+        <v>810</v>
       </c>
       <c r="K161" s="0" t="s">
-        <v>909</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="162">
@@ -9053,10 +9542,10 @@
         <v>7.46</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="K162" s="0" t="s">
-        <v>910</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="163">
@@ -9088,10 +9577,10 @@
         <v>2.3399999999999999</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>911</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="164">
@@ -9123,10 +9612,10 @@
         <v>2.4399999999999999</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="K164" s="0" t="s">
-        <v>912</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="165">
@@ -9158,10 +9647,10 @@
         <v>3.6200000000000001</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>913</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="166">
@@ -9193,10 +9682,10 @@
         <v>2.1600000000000001</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="K166" s="0" t="s">
-        <v>914</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="167">
@@ -9228,10 +9717,10 @@
         <v>2.3399999999999999</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="K167" s="0" t="s">
-        <v>915</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="168">
@@ -9263,10 +9752,10 @@
         <v>3.3100000000000001</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>749</v>
+        <v>811</v>
       </c>
       <c r="K168" s="0" t="s">
-        <v>916</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="169">
@@ -9298,10 +9787,10 @@
         <v>3.4300000000000002</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>748</v>
+        <v>812</v>
       </c>
       <c r="K169" s="0" t="s">
-        <v>917</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="170">
@@ -9333,10 +9822,10 @@
         <v>2.3399999999999999</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>748</v>
+        <v>812</v>
       </c>
       <c r="K170" s="0" t="s">
-        <v>918</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="171">
@@ -9368,10 +9857,10 @@
         <v>3.75</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>748</v>
+        <v>812</v>
       </c>
       <c r="K171" s="0" t="s">
-        <v>919</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="172">
@@ -9403,10 +9892,10 @@
         <v>2.9100000000000001</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>749</v>
+        <v>813</v>
       </c>
       <c r="K172" s="0" t="s">
-        <v>920</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="173">
@@ -9438,10 +9927,10 @@
         <v>4.75</v>
       </c>
       <c r="J173" s="0" t="s">
-        <v>748</v>
+        <v>814</v>
       </c>
       <c r="K173" s="0" t="s">
-        <v>921</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="174">
@@ -9473,10 +9962,10 @@
         <v>2.9300000000000002</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>749</v>
+        <v>815</v>
       </c>
       <c r="K174" s="0" t="s">
-        <v>922</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="175">
@@ -9508,10 +9997,10 @@
         <v>3.2799999999999998</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>749</v>
+        <v>815</v>
       </c>
       <c r="K175" s="0" t="s">
-        <v>923</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="176">
@@ -9543,10 +10032,10 @@
         <v>2.4199999999999999</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>749</v>
+        <v>815</v>
       </c>
       <c r="K176" s="0" t="s">
-        <v>924</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="177">
@@ -9578,10 +10067,10 @@
         <v>2.8300000000000001</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>748</v>
+        <v>816</v>
       </c>
       <c r="K177" s="0" t="s">
-        <v>925</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="178">
@@ -9613,10 +10102,10 @@
         <v>2.9399999999999999</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>748</v>
+        <v>816</v>
       </c>
       <c r="K178" s="0" t="s">
-        <v>926</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="179">
@@ -9648,10 +10137,10 @@
         <v>3.96</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>748</v>
+        <v>816</v>
       </c>
       <c r="K179" s="0" t="s">
-        <v>927</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="180">
@@ -9683,10 +10172,10 @@
         <v>2.7999999999999998</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>748</v>
+        <v>816</v>
       </c>
       <c r="K180" s="0" t="s">
-        <v>928</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="181">
@@ -9718,10 +10207,10 @@
         <v>2.6800000000000002</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>749</v>
+        <v>817</v>
       </c>
       <c r="K181" s="0" t="s">
-        <v>929</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="182">
@@ -9753,10 +10242,10 @@
         <v>3.1200000000000001</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>748</v>
+        <v>818</v>
       </c>
       <c r="K182" s="0" t="s">
-        <v>930</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="183">
@@ -9788,10 +10277,10 @@
         <v>3.1200000000000001</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>749</v>
+        <v>819</v>
       </c>
       <c r="K183" s="0" t="s">
-        <v>931</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="184">
@@ -9823,10 +10312,10 @@
         <v>2.8300000000000001</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>749</v>
+        <v>819</v>
       </c>
       <c r="K184" s="0" t="s">
-        <v>932</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="185">
@@ -9858,10 +10347,10 @@
         <v>5.4400000000000004</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>748</v>
+        <v>820</v>
       </c>
       <c r="K185" s="0" t="s">
-        <v>933</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="186">
@@ -9893,10 +10382,10 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>748</v>
+        <v>820</v>
       </c>
       <c r="K186" s="0" t="s">
-        <v>934</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="187">
@@ -9928,10 +10417,10 @@
         <v>3.04</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="K187" s="0" t="s">
-        <v>935</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="188">
@@ -9963,10 +10452,10 @@
         <v>2.21</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="K188" s="0" t="s">
-        <v>936</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="189">
@@ -9998,10 +10487,10 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="K189" s="0" t="s">
-        <v>937</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="190">
@@ -10033,10 +10522,10 @@
         <v>2.3799999999999999</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="K190" s="0" t="s">
-        <v>938</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="191">
@@ -10068,10 +10557,10 @@
         <v>3.1000000000000001</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="K191" s="0" t="s">
-        <v>939</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="192">
@@ -10103,10 +10592,10 @@
         <v>2.8599999999999999</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="K192" s="0" t="s">
-        <v>940</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="193">
@@ -10138,10 +10627,10 @@
         <v>2.8999999999999999</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>749</v>
+        <v>821</v>
       </c>
       <c r="K193" s="0" t="s">
-        <v>941</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="194">
@@ -10173,10 +10662,10 @@
         <v>3.6400000000000001</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>748</v>
+        <v>822</v>
       </c>
       <c r="K194" s="0" t="s">
-        <v>942</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="195">
@@ -10208,10 +10697,10 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>748</v>
+        <v>822</v>
       </c>
       <c r="K195" s="0" t="s">
-        <v>943</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="196">
@@ -10243,10 +10732,10 @@
         <v>2.77</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>749</v>
+        <v>823</v>
       </c>
       <c r="K196" s="0" t="s">
-        <v>944</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="197">
@@ -10278,10 +10767,10 @@
         <v>4.0300000000000002</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>748</v>
+        <v>824</v>
       </c>
       <c r="K197" s="0" t="s">
-        <v>945</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="198">
@@ -10313,10 +10802,10 @@
         <v>2.3399999999999999</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>748</v>
+        <v>824</v>
       </c>
       <c r="K198" s="0" t="s">
-        <v>946</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="199">
@@ -10348,10 +10837,10 @@
         <v>5.5599999999999996</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>749</v>
+        <v>825</v>
       </c>
       <c r="K199" s="0" t="s">
-        <v>947</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="200">
@@ -10383,10 +10872,10 @@
         <v>2.3599999999999999</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>749</v>
+        <v>825</v>
       </c>
       <c r="K200" s="0" t="s">
-        <v>948</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="201">
@@ -10418,10 +10907,10 @@
         <v>2.7799999999999998</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>749</v>
+        <v>825</v>
       </c>
       <c r="K201" s="0" t="s">
-        <v>949</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="202">
@@ -10453,10 +10942,10 @@
         <v>3.7999999999999998</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>748</v>
+        <v>826</v>
       </c>
       <c r="K202" s="0" t="s">
-        <v>950</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="203">
@@ -10488,10 +10977,10 @@
         <v>1.74</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>749</v>
+        <v>827</v>
       </c>
       <c r="K203" s="0" t="s">
-        <v>951</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="204">
@@ -10523,10 +11012,10 @@
         <v>1.9099999999999999</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>748</v>
+        <v>828</v>
       </c>
       <c r="K204" s="0" t="s">
-        <v>952</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="205">
@@ -10558,10 +11047,10 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>748</v>
+        <v>828</v>
       </c>
       <c r="K205" s="0" t="s">
-        <v>953</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="206">
@@ -10593,10 +11082,10 @@
         <v>3.2400000000000002</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>749</v>
+        <v>829</v>
       </c>
       <c r="K206" s="0" t="s">
-        <v>954</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="207">
@@ -10628,10 +11117,10 @@
         <v>2.8300000000000001</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>748</v>
+        <v>830</v>
       </c>
       <c r="K207" s="0" t="s">
-        <v>955</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="208">
@@ -10663,10 +11152,10 @@
         <v>2.7599999999999998</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>749</v>
+        <v>831</v>
       </c>
       <c r="K208" s="0" t="s">
-        <v>956</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="209">
@@ -10698,10 +11187,10 @@
         <v>2.7599999999999998</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>748</v>
+        <v>832</v>
       </c>
       <c r="K209" s="0" t="s">
-        <v>957</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="210">
@@ -10733,10 +11222,10 @@
         <v>3.04</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>749</v>
+        <v>833</v>
       </c>
       <c r="K210" s="0" t="s">
-        <v>958</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="211">
@@ -10768,10 +11257,10 @@
         <v>1.51</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>749</v>
+        <v>833</v>
       </c>
       <c r="K211" s="0" t="s">
-        <v>959</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="212">
@@ -10803,10 +11292,10 @@
         <v>1.8400000000000001</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>749</v>
+        <v>833</v>
       </c>
       <c r="K212" s="0" t="s">
-        <v>960</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="213">
@@ -10838,10 +11327,10 @@
         <v>1.05</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>748</v>
+        <v>834</v>
       </c>
       <c r="K213" s="0" t="s">
-        <v>961</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="214">
@@ -10873,10 +11362,10 @@
         <v>2.7400000000000002</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>748</v>
+        <v>834</v>
       </c>
       <c r="K214" s="0" t="s">
-        <v>962</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="215">
@@ -10908,10 +11397,10 @@
         <v>4.0899999999999999</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>748</v>
+        <v>834</v>
       </c>
       <c r="K215" s="0" t="s">
-        <v>963</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="216">
@@ -10943,10 +11432,10 @@
         <v>2.3999999999999999</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>749</v>
+        <v>835</v>
       </c>
       <c r="K216" s="0" t="s">
-        <v>964</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="217">
@@ -10978,10 +11467,10 @@
         <v>1.8</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>749</v>
+        <v>835</v>
       </c>
       <c r="K217" s="0" t="s">
-        <v>965</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="218">
@@ -11013,10 +11502,10 @@
         <v>1.8600000000000001</v>
       </c>
       <c r="J218" s="0" t="s">
-        <v>749</v>
+        <v>835</v>
       </c>
       <c r="K218" s="0" t="s">
-        <v>966</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="219">
@@ -11048,10 +11537,10 @@
         <v>1.47</v>
       </c>
       <c r="J219" s="0" t="s">
-        <v>748</v>
+        <v>836</v>
       </c>
       <c r="K219" s="0" t="s">
-        <v>967</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="220">
@@ -11083,10 +11572,10 @@
         <v>2.29</v>
       </c>
       <c r="J220" s="0" t="s">
-        <v>749</v>
+        <v>837</v>
       </c>
       <c r="K220" s="0" t="s">
-        <v>968</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="221">
@@ -11118,10 +11607,10 @@
         <v>1.78</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>749</v>
+        <v>837</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>969</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="222">
@@ -11153,10 +11642,10 @@
         <v>2.1200000000000001</v>
       </c>
       <c r="J222" s="0" t="s">
-        <v>749</v>
+        <v>837</v>
       </c>
       <c r="K222" s="0" t="s">
-        <v>970</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="223">
@@ -11188,10 +11677,10 @@
         <v>1.74</v>
       </c>
       <c r="J223" s="0" t="s">
-        <v>749</v>
+        <v>837</v>
       </c>
       <c r="K223" s="0" t="s">
-        <v>971</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="224">
@@ -11223,10 +11712,10 @@
         <v>3.9100000000000001</v>
       </c>
       <c r="J224" s="0" t="s">
-        <v>748</v>
+        <v>838</v>
       </c>
       <c r="K224" s="0" t="s">
-        <v>972</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="225">
@@ -11258,10 +11747,10 @@
         <v>2.4199999999999999</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="K225" s="0" t="s">
-        <v>973</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="226">
@@ -11293,10 +11782,10 @@
         <v>2.1099999999999999</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="K226" s="0" t="s">
-        <v>974</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="227">
@@ -11328,10 +11817,10 @@
         <v>2.0899999999999999</v>
       </c>
       <c r="J227" s="0" t="s">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="K227" s="0" t="s">
-        <v>975</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="228">
@@ -11363,10 +11852,10 @@
         <v>1.8</v>
       </c>
       <c r="J228" s="0" t="s">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="K228" s="0" t="s">
-        <v>976</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="229">
@@ -11398,10 +11887,10 @@
         <v>2.25</v>
       </c>
       <c r="J229" s="0" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
       <c r="K229" s="0" t="s">
-        <v>977</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="230">
@@ -11433,10 +11922,10 @@
         <v>4.71</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
       <c r="K230" s="0" t="s">
-        <v>978</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="231">
@@ -11468,10 +11957,10 @@
         <v>1.99</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="K231" s="0" t="s">
-        <v>979</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="232">
@@ -11503,10 +11992,10 @@
         <v>2.5</v>
       </c>
       <c r="J232" s="0" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="K232" s="0" t="s">
-        <v>980</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="233">
@@ -11538,10 +12027,10 @@
         <v>3.1699999999999999</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>748</v>
+        <v>842</v>
       </c>
       <c r="K233" s="0" t="s">
-        <v>981</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="234">
@@ -11573,10 +12062,10 @@
         <v>1.45</v>
       </c>
       <c r="J234" s="0" t="s">
-        <v>749</v>
+        <v>843</v>
       </c>
       <c r="K234" s="0" t="s">
-        <v>982</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="235">
@@ -11608,10 +12097,10 @@
         <v>3.1600000000000001</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>748</v>
+        <v>844</v>
       </c>
       <c r="K235" s="0" t="s">
-        <v>983</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="236">
@@ -11643,10 +12132,10 @@
         <v>1.3700000000000001</v>
       </c>
       <c r="J236" s="0" t="s">
-        <v>749</v>
+        <v>845</v>
       </c>
       <c r="K236" s="0" t="s">
-        <v>984</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="237">
@@ -11678,10 +12167,10 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>748</v>
+        <v>846</v>
       </c>
       <c r="K237" s="0" t="s">
-        <v>985</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="238">
@@ -11713,10 +12202,10 @@
         <v>1.3700000000000001</v>
       </c>
       <c r="J238" s="0" t="s">
-        <v>749</v>
+        <v>847</v>
       </c>
       <c r="K238" s="0" t="s">
-        <v>986</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="239">
@@ -11748,10 +12237,10 @@
         <v>2.8999999999999999</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>987</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="240">
@@ -11783,10 +12272,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J240" s="0" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>988</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="241">
@@ -11818,10 +12307,10 @@
         <v>2.48</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>989</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="242">
@@ -11853,10 +12342,10 @@
         <v>1.97</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>748</v>
+        <v>848</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>990</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="243">
@@ -11888,10 +12377,10 @@
         <v>3.1499999999999999</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>991</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="244">
@@ -11923,10 +12412,10 @@
         <v>2.8900000000000001</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>947</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="245">
@@ -11958,10 +12447,10 @@
         <v>1.73</v>
       </c>
       <c r="J245" s="0" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="K245" s="0" t="s">
-        <v>992</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="246">
@@ -11993,10 +12482,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="J246" s="0" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="K246" s="0" t="s">
-        <v>993</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="247">
@@ -12028,10 +12517,10 @@
         <v>2.6899999999999999</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>749</v>
+        <v>849</v>
       </c>
       <c r="K247" s="0" t="s">
-        <v>994</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="248">
@@ -12063,10 +12552,10 @@
         <v>2.9199999999999999</v>
       </c>
       <c r="J248" s="0" t="s">
-        <v>748</v>
+        <v>850</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>995</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="249">
@@ -12098,10 +12587,10 @@
         <v>2.6099999999999999</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>748</v>
+        <v>850</v>
       </c>
       <c r="K249" s="0" t="s">
-        <v>996</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="250">
@@ -12133,10 +12622,10 @@
         <v>1.02</v>
       </c>
       <c r="J250" s="0" t="s">
-        <v>748</v>
+        <v>850</v>
       </c>
       <c r="K250" s="0" t="s">
-        <v>997</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="251">
@@ -12168,10 +12657,10 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="J251" s="0" t="s">
-        <v>748</v>
+        <v>850</v>
       </c>
       <c r="K251" s="0" t="s">
-        <v>998</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="252">
@@ -12203,10 +12692,10 @@
         <v>2.6099999999999999</v>
       </c>
       <c r="J252" s="0" t="s">
-        <v>749</v>
+        <v>851</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>999</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="253">
@@ -12238,10 +12727,10 @@
         <v>1.04</v>
       </c>
       <c r="J253" s="0" t="s">
-        <v>748</v>
+        <v>852</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>1000</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="254">
@@ -12273,10 +12762,10 @@
         <v>2.7200000000000002</v>
       </c>
       <c r="J254" s="0" t="s">
-        <v>749</v>
+        <v>853</v>
       </c>
       <c r="K254" s="0" t="s">
-        <v>1001</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="255">
@@ -12308,10 +12797,10 @@
         <v>1.5800000000000001</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>749</v>
+        <v>853</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>1002</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="256">
@@ -12343,10 +12832,10 @@
         <v>2.5</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>749</v>
+        <v>853</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>1003</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="257">
@@ -12378,10 +12867,10 @@
         <v>1.6399999999999999</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>749</v>
+        <v>853</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>1004</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="258">
@@ -12413,10 +12902,10 @@
         <v>1.52</v>
       </c>
       <c r="J258" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>1005</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="259">
@@ -12448,10 +12937,10 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="J259" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>1006</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="260">
@@ -12483,10 +12972,10 @@
         <v>1.7</v>
       </c>
       <c r="J260" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>1007</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="261">
@@ -12518,10 +13007,10 @@
         <v>1.0800000000000001</v>
       </c>
       <c r="J261" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="K261" s="0" t="s">
-        <v>1008</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="262">
@@ -12553,10 +13042,10 @@
         <v>1.29</v>
       </c>
       <c r="J262" s="0" t="s">
-        <v>748</v>
+        <v>854</v>
       </c>
       <c r="K262" s="0" t="s">
-        <v>1009</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="263">
@@ -12588,10 +13077,10 @@
         <v>2.0800000000000001</v>
       </c>
       <c r="J263" s="0" t="s">
-        <v>749</v>
+        <v>855</v>
       </c>
       <c r="K263" s="0" t="s">
-        <v>1010</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="264">
@@ -12623,10 +13112,10 @@
         <v>0.79000000000000004</v>
       </c>
       <c r="J264" s="0" t="s">
-        <v>748</v>
+        <v>856</v>
       </c>
       <c r="K264" s="0" t="s">
-        <v>1011</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="265">
@@ -12658,10 +13147,10 @@
         <v>1.8400000000000001</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>748</v>
+        <v>856</v>
       </c>
       <c r="K265" s="0" t="s">
-        <v>1012</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="266">
@@ -12693,10 +13182,10 @@
         <v>1.6599999999999999</v>
       </c>
       <c r="J266" s="0" t="s">
-        <v>748</v>
+        <v>856</v>
       </c>
       <c r="K266" s="0" t="s">
-        <v>1013</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="267">
@@ -12728,10 +13217,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J267" s="0" t="s">
-        <v>748</v>
+        <v>856</v>
       </c>
       <c r="K267" s="0" t="s">
-        <v>1014</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="268">
@@ -12763,10 +13252,10 @@
         <v>2.6800000000000002</v>
       </c>
       <c r="J268" s="0" t="s">
-        <v>749</v>
+        <v>857</v>
       </c>
       <c r="K268" s="0" t="s">
-        <v>1015</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="269">
@@ -12798,10 +13287,10 @@
         <v>1.8</v>
       </c>
       <c r="J269" s="0" t="s">
-        <v>749</v>
+        <v>857</v>
       </c>
       <c r="K269" s="0" t="s">
-        <v>783</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="270">
@@ -12833,10 +13322,10 @@
         <v>1.3200000000000001</v>
       </c>
       <c r="J270" s="0" t="s">
-        <v>748</v>
+        <v>858</v>
       </c>
       <c r="K270" s="0" t="s">
-        <v>1016</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="271">
@@ -12868,10 +13357,10 @@
         <v>0.79000000000000004</v>
       </c>
       <c r="J271" s="0" t="s">
-        <v>748</v>
+        <v>858</v>
       </c>
       <c r="K271" s="0" t="s">
-        <v>1017</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="272">
@@ -12903,10 +13392,10 @@
         <v>2.27</v>
       </c>
       <c r="J272" s="0" t="s">
-        <v>748</v>
+        <v>858</v>
       </c>
       <c r="K272" s="0" t="s">
-        <v>1018</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="273">
@@ -12938,10 +13427,10 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J273" s="0" t="s">
-        <v>748</v>
+        <v>858</v>
       </c>
       <c r="K273" s="0" t="s">
-        <v>1019</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="274">
@@ -12973,10 +13462,10 @@
         <v>1.7</v>
       </c>
       <c r="J274" s="0" t="s">
-        <v>749</v>
+        <v>859</v>
       </c>
       <c r="K274" s="0" t="s">
-        <v>1020</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="275">
@@ -13008,10 +13497,10 @@
         <v>0.87</v>
       </c>
       <c r="J275" s="0" t="s">
-        <v>748</v>
+        <v>860</v>
       </c>
       <c r="K275" s="0" t="s">
-        <v>1021</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="276">
@@ -13043,10 +13532,10 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="J276" s="0" t="s">
-        <v>748</v>
+        <v>860</v>
       </c>
       <c r="K276" s="0" t="s">
-        <v>1022</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="277">
@@ -13078,10 +13567,10 @@
         <v>1.6899999999999999</v>
       </c>
       <c r="J277" s="0" t="s">
-        <v>749</v>
+        <v>861</v>
       </c>
       <c r="K277" s="0" t="s">
-        <v>1023</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="278">
@@ -13113,10 +13602,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J278" s="0" t="s">
-        <v>748</v>
+        <v>862</v>
       </c>
       <c r="K278" s="0" t="s">
-        <v>1024</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="279">
@@ -13148,10 +13637,10 @@
         <v>1.4099999999999999</v>
       </c>
       <c r="J279" s="0" t="s">
-        <v>748</v>
+        <v>862</v>
       </c>
       <c r="K279" s="0" t="s">
-        <v>1025</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="280">
@@ -13183,10 +13672,10 @@
         <v>1.95</v>
       </c>
       <c r="J280" s="0" t="s">
-        <v>749</v>
+        <v>863</v>
       </c>
       <c r="K280" s="0" t="s">
-        <v>1026</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="281">
@@ -13218,10 +13707,10 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="J281" s="0" t="s">
-        <v>748</v>
+        <v>864</v>
       </c>
       <c r="K281" s="0" t="s">
-        <v>1027</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="282">
@@ -13253,10 +13742,10 @@
         <v>1.05</v>
       </c>
       <c r="J282" s="0" t="s">
-        <v>748</v>
+        <v>864</v>
       </c>
       <c r="K282" s="0" t="s">
-        <v>1028</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="283">
@@ -13288,10 +13777,10 @@
         <v>1.5</v>
       </c>
       <c r="J283" s="0" t="s">
-        <v>749</v>
+        <v>865</v>
       </c>
       <c r="K283" s="0" t="s">
-        <v>1029</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="284">
@@ -13323,10 +13812,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J284" s="0" t="s">
-        <v>749</v>
+        <v>865</v>
       </c>
       <c r="K284" s="0" t="s">
-        <v>1030</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="285">
@@ -13358,10 +13847,10 @@
         <v>1.22</v>
       </c>
       <c r="J285" s="0" t="s">
-        <v>749</v>
+        <v>865</v>
       </c>
       <c r="K285" s="0" t="s">
-        <v>1031</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="286">
@@ -13393,10 +13882,10 @@
         <v>1.3500000000000001</v>
       </c>
       <c r="J286" s="0" t="s">
-        <v>748</v>
+        <v>866</v>
       </c>
       <c r="K286" s="0" t="s">
-        <v>1032</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="287">
@@ -13428,10 +13917,10 @@
         <v>2.6400000000000001</v>
       </c>
       <c r="J287" s="0" t="s">
-        <v>749</v>
+        <v>867</v>
       </c>
       <c r="K287" s="0" t="s">
-        <v>1033</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="288">
@@ -13463,10 +13952,10 @@
         <v>0.83999999999999997</v>
       </c>
       <c r="J288" s="0" t="s">
-        <v>749</v>
+        <v>867</v>
       </c>
       <c r="K288" s="0" t="s">
-        <v>948</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="289">
@@ -13498,10 +13987,10 @@
         <v>1.3899999999999999</v>
       </c>
       <c r="J289" s="0" t="s">
-        <v>749</v>
+        <v>867</v>
       </c>
       <c r="K289" s="0" t="s">
-        <v>1034</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="290">
@@ -13533,10 +14022,10 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J290" s="0" t="s">
-        <v>748</v>
+        <v>868</v>
       </c>
       <c r="K290" s="0" t="s">
-        <v>1035</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="291">
@@ -13568,10 +14057,10 @@
         <v>1.5900000000000001</v>
       </c>
       <c r="J291" s="0" t="s">
-        <v>748</v>
+        <v>868</v>
       </c>
       <c r="K291" s="0" t="s">
-        <v>1036</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="292">
@@ -13603,10 +14092,10 @@
         <v>2.52</v>
       </c>
       <c r="J292" s="0" t="s">
-        <v>749</v>
+        <v>869</v>
       </c>
       <c r="K292" s="0" t="s">
-        <v>961</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="293">
@@ -13638,10 +14127,10 @@
         <v>1.53</v>
       </c>
       <c r="J293" s="0" t="s">
-        <v>749</v>
+        <v>869</v>
       </c>
       <c r="K293" s="0" t="s">
-        <v>1037</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="294">
@@ -13673,10 +14162,10 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="J294" s="0" t="s">
-        <v>748</v>
+        <v>870</v>
       </c>
       <c r="K294" s="0" t="s">
-        <v>1038</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="295">
@@ -13708,10 +14197,10 @@
         <v>3.7799999999999998</v>
       </c>
       <c r="J295" s="0" t="s">
-        <v>748</v>
+        <v>870</v>
       </c>
       <c r="K295" s="0" t="s">
-        <v>1039</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="296">
@@ -13743,10 +14232,10 @@
         <v>1.6399999999999999</v>
       </c>
       <c r="J296" s="0" t="s">
-        <v>748</v>
+        <v>870</v>
       </c>
       <c r="K296" s="0" t="s">
-        <v>853</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="297">
@@ -13778,10 +14267,10 @@
         <v>0.66000000000000003</v>
       </c>
       <c r="J297" s="0" t="s">
-        <v>748</v>
+        <v>870</v>
       </c>
       <c r="K297" s="0" t="s">
-        <v>1040</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="298">
@@ -13813,10 +14302,10 @@
         <v>1.23</v>
       </c>
       <c r="J298" s="0" t="s">
-        <v>749</v>
+        <v>871</v>
       </c>
       <c r="K298" s="0" t="s">
-        <v>806</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="299">
@@ -13848,10 +14337,10 @@
         <v>0.91000000000000003</v>
       </c>
       <c r="J299" s="0" t="s">
-        <v>748</v>
+        <v>872</v>
       </c>
       <c r="K299" s="0" t="s">
-        <v>1041</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="300">
@@ -13883,10 +14372,10 @@
         <v>1.46</v>
       </c>
       <c r="J300" s="0" t="s">
-        <v>748</v>
+        <v>872</v>
       </c>
       <c r="K300" s="0" t="s">
-        <v>1042</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="301">
@@ -13918,10 +14407,10 @@
         <v>1.54</v>
       </c>
       <c r="J301" s="0" t="s">
-        <v>748</v>
+        <v>872</v>
       </c>
       <c r="K301" s="0" t="s">
-        <v>1043</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="302">
@@ -13953,10 +14442,10 @@
         <v>1.53</v>
       </c>
       <c r="J302" s="0" t="s">
-        <v>748</v>
+        <v>872</v>
       </c>
       <c r="K302" s="0" t="s">
-        <v>1044</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="303">
@@ -13988,10 +14477,10 @@
         <v>1.5800000000000001</v>
       </c>
       <c r="J303" s="0" t="s">
-        <v>748</v>
+        <v>872</v>
       </c>
       <c r="K303" s="0" t="s">
-        <v>1045</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="304">
@@ -14023,10 +14512,10 @@
         <v>1.47</v>
       </c>
       <c r="J304" s="0" t="s">
-        <v>749</v>
+        <v>873</v>
       </c>
       <c r="K304" s="0" t="s">
-        <v>1046</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="305">
@@ -14058,10 +14547,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J305" s="0" t="s">
-        <v>748</v>
+        <v>874</v>
       </c>
       <c r="K305" s="0" t="s">
-        <v>1047</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="306">
@@ -14093,10 +14582,10 @@
         <v>2.1699999999999999</v>
       </c>
       <c r="J306" s="0" t="s">
-        <v>748</v>
+        <v>874</v>
       </c>
       <c r="K306" s="0" t="s">
-        <v>1048</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="307">
@@ -14128,10 +14617,10 @@
         <v>1.47</v>
       </c>
       <c r="J307" s="0" t="s">
-        <v>748</v>
+        <v>874</v>
       </c>
       <c r="K307" s="0" t="s">
-        <v>1049</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="308">
@@ -14163,10 +14652,10 @@
         <v>1.79</v>
       </c>
       <c r="J308" s="0" t="s">
-        <v>749</v>
+        <v>875</v>
       </c>
       <c r="K308" s="0" t="s">
-        <v>1050</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="309">
@@ -14198,10 +14687,10 @@
         <v>3.6299999999999999</v>
       </c>
       <c r="J309" s="0" t="s">
-        <v>749</v>
+        <v>875</v>
       </c>
       <c r="K309" s="0" t="s">
-        <v>1051</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="310">
@@ -14233,10 +14722,10 @@
         <v>0.91000000000000003</v>
       </c>
       <c r="J310" s="0" t="s">
-        <v>748</v>
+        <v>876</v>
       </c>
       <c r="K310" s="0" t="s">
-        <v>1052</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="311">
@@ -14268,10 +14757,10 @@
         <v>1.77</v>
       </c>
       <c r="J311" s="0" t="s">
-        <v>749</v>
+        <v>877</v>
       </c>
       <c r="K311" s="0" t="s">
-        <v>1053</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="312">
@@ -14303,10 +14792,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J312" s="0" t="s">
-        <v>749</v>
+        <v>877</v>
       </c>
       <c r="K312" s="0" t="s">
-        <v>1054</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="313">
@@ -14338,10 +14827,10 @@
         <v>1.75</v>
       </c>
       <c r="J313" s="0" t="s">
-        <v>749</v>
+        <v>877</v>
       </c>
       <c r="K313" s="0" t="s">
-        <v>1055</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="314">
@@ -14373,10 +14862,10 @@
         <v>0.70999999999999996</v>
       </c>
       <c r="J314" s="0" t="s">
-        <v>748</v>
+        <v>878</v>
       </c>
       <c r="K314" s="0" t="s">
-        <v>1056</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="315">
@@ -14408,10 +14897,10 @@
         <v>1.24</v>
       </c>
       <c r="J315" s="0" t="s">
-        <v>748</v>
+        <v>878</v>
       </c>
       <c r="K315" s="0" t="s">
-        <v>1057</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="316">
@@ -14443,10 +14932,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="J316" s="0" t="s">
-        <v>748</v>
+        <v>878</v>
       </c>
       <c r="K316" s="0" t="s">
-        <v>1058</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="317">
@@ -14478,10 +14967,10 @@
         <v>0.41999999999999998</v>
       </c>
       <c r="J317" s="0" t="s">
-        <v>748</v>
+        <v>878</v>
       </c>
       <c r="K317" s="0" t="s">
-        <v>1059</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="318">
@@ -14513,10 +15002,10 @@
         <v>0.75</v>
       </c>
       <c r="J318" s="0" t="s">
-        <v>748</v>
+        <v>878</v>
       </c>
       <c r="K318" s="0" t="s">
-        <v>985</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="319">
@@ -14548,10 +15037,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J319" s="0" t="s">
-        <v>749</v>
+        <v>879</v>
       </c>
       <c r="K319" s="0" t="s">
-        <v>1060</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="320">
@@ -14583,10 +15072,10 @@
         <v>1.77</v>
       </c>
       <c r="J320" s="0" t="s">
-        <v>749</v>
+        <v>879</v>
       </c>
       <c r="K320" s="0" t="s">
-        <v>1061</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="321">
@@ -14618,10 +15107,10 @@
         <v>0.92000000000000004</v>
       </c>
       <c r="J321" s="0" t="s">
-        <v>748</v>
+        <v>880</v>
       </c>
       <c r="K321" s="0" t="s">
-        <v>1062</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="322">
@@ -14653,10 +15142,10 @@
         <v>1.77</v>
       </c>
       <c r="J322" s="0" t="s">
-        <v>748</v>
+        <v>880</v>
       </c>
       <c r="K322" s="0" t="s">
-        <v>1063</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="323">
@@ -14688,10 +15177,10 @@
         <v>1.5600000000000001</v>
       </c>
       <c r="J323" s="0" t="s">
-        <v>749</v>
+        <v>881</v>
       </c>
       <c r="K323" s="0" t="s">
-        <v>1064</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="324">
@@ -14723,10 +15212,10 @@
         <v>0.94999999999999996</v>
       </c>
       <c r="J324" s="0" t="s">
-        <v>749</v>
+        <v>881</v>
       </c>
       <c r="K324" s="0" t="s">
-        <v>1065</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="325">
@@ -14758,10 +15247,10 @@
         <v>0.96999999999999997</v>
       </c>
       <c r="J325" s="0" t="s">
-        <v>748</v>
+        <v>882</v>
       </c>
       <c r="K325" s="0" t="s">
-        <v>1066</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="326">
@@ -14793,10 +15282,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="J326" s="0" t="s">
-        <v>748</v>
+        <v>882</v>
       </c>
       <c r="K326" s="0" t="s">
-        <v>1067</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="327">
@@ -14828,10 +15317,10 @@
         <v>1.02</v>
       </c>
       <c r="J327" s="0" t="s">
-        <v>749</v>
+        <v>883</v>
       </c>
       <c r="K327" s="0" t="s">
-        <v>1068</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="328">
@@ -14863,10 +15352,10 @@
         <v>0.93000000000000005</v>
       </c>
       <c r="J328" s="0" t="s">
-        <v>749</v>
+        <v>883</v>
       </c>
       <c r="K328" s="0" t="s">
-        <v>1069</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="329">
@@ -14898,10 +15387,10 @@
         <v>1.73</v>
       </c>
       <c r="J329" s="0" t="s">
-        <v>749</v>
+        <v>883</v>
       </c>
       <c r="K329" s="0" t="s">
-        <v>1070</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="330">
@@ -14933,10 +15422,10 @@
         <v>0.68999999999999995</v>
       </c>
       <c r="J330" s="0" t="s">
-        <v>748</v>
+        <v>884</v>
       </c>
       <c r="K330" s="0" t="s">
-        <v>935</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="331">
@@ -14968,10 +15457,10 @@
         <v>1.21</v>
       </c>
       <c r="J331" s="0" t="s">
-        <v>748</v>
+        <v>884</v>
       </c>
       <c r="K331" s="0" t="s">
-        <v>1071</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="332">
@@ -15003,10 +15492,10 @@
         <v>1.45</v>
       </c>
       <c r="J332" s="0" t="s">
-        <v>748</v>
+        <v>884</v>
       </c>
       <c r="K332" s="0" t="s">
-        <v>1072</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="333">
@@ -15038,10 +15527,10 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="J333" s="0" t="s">
-        <v>749</v>
+        <v>885</v>
       </c>
       <c r="K333" s="0" t="s">
-        <v>1073</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="334">
@@ -15073,10 +15562,10 @@
         <v>1.8300000000000001</v>
       </c>
       <c r="J334" s="0" t="s">
-        <v>749</v>
+        <v>885</v>
       </c>
       <c r="K334" s="0" t="s">
-        <v>1074</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="335">
@@ -15108,10 +15597,10 @@
         <v>1.5800000000000001</v>
       </c>
       <c r="J335" s="0" t="s">
-        <v>749</v>
+        <v>885</v>
       </c>
       <c r="K335" s="0" t="s">
-        <v>1075</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="336">
@@ -15143,10 +15632,10 @@
         <v>1.8</v>
       </c>
       <c r="J336" s="0" t="s">
-        <v>749</v>
+        <v>885</v>
       </c>
       <c r="K336" s="0" t="s">
-        <v>1076</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="337">
@@ -15178,10 +15667,10 @@
         <v>0.89000000000000001</v>
       </c>
       <c r="J337" s="0" t="s">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="K337" s="0" t="s">
-        <v>1077</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="338">
@@ -15213,10 +15702,10 @@
         <v>1.71</v>
       </c>
       <c r="J338" s="0" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="K338" s="0" t="s">
-        <v>1078</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="339">
@@ -15248,10 +15737,10 @@
         <v>1.04</v>
       </c>
       <c r="J339" s="0" t="s">
-        <v>749</v>
+        <v>887</v>
       </c>
       <c r="K339" s="0" t="s">
-        <v>1079</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="340">
@@ -15283,10 +15772,10 @@
         <v>0.68999999999999995</v>
       </c>
       <c r="J340" s="0" t="s">
-        <v>748</v>
+        <v>888</v>
       </c>
       <c r="K340" s="0" t="s">
-        <v>1080</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="341">
@@ -15318,10 +15807,10 @@
         <v>0.68000000000000005</v>
       </c>
       <c r="J341" s="0" t="s">
-        <v>748</v>
+        <v>888</v>
       </c>
       <c r="K341" s="0" t="s">
-        <v>1081</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="342">
@@ -15353,10 +15842,10 @@
         <v>0.75</v>
       </c>
       <c r="J342" s="0" t="s">
-        <v>748</v>
+        <v>888</v>
       </c>
       <c r="K342" s="0" t="s">
-        <v>1082</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="343">
@@ -15388,10 +15877,10 @@
         <v>1.46</v>
       </c>
       <c r="J343" s="0" t="s">
-        <v>749</v>
+        <v>889</v>
       </c>
       <c r="K343" s="0" t="s">
-        <v>797</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="344">
@@ -15423,10 +15912,10 @@
         <v>0.65000000000000002</v>
       </c>
       <c r="J344" s="0" t="s">
-        <v>748</v>
+        <v>890</v>
       </c>
       <c r="K344" s="0" t="s">
-        <v>1083</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="345">
@@ -15458,10 +15947,10 @@
         <v>0.53000000000000003</v>
       </c>
       <c r="J345" s="0" t="s">
-        <v>748</v>
+        <v>890</v>
       </c>
       <c r="K345" s="0" t="s">
-        <v>1084</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="346">
@@ -15493,10 +15982,10 @@
         <v>1.49</v>
       </c>
       <c r="J346" s="0" t="s">
-        <v>749</v>
+        <v>891</v>
       </c>
       <c r="K346" s="0" t="s">
-        <v>1016</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="347">
@@ -15528,10 +16017,10 @@
         <v>1.6399999999999999</v>
       </c>
       <c r="J347" s="0" t="s">
-        <v>749</v>
+        <v>891</v>
       </c>
       <c r="K347" s="0" t="s">
-        <v>1085</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="348">
@@ -15563,10 +16052,10 @@
         <v>0.81000000000000005</v>
       </c>
       <c r="J348" s="0" t="s">
-        <v>748</v>
+        <v>892</v>
       </c>
       <c r="K348" s="0" t="s">
-        <v>1086</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="349">
@@ -15598,10 +16087,10 @@
         <v>0.82999999999999996</v>
       </c>
       <c r="J349" s="0" t="s">
-        <v>748</v>
+        <v>892</v>
       </c>
       <c r="K349" s="0" t="s">
-        <v>1087</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="350">
@@ -15633,10 +16122,10 @@
         <v>1.23</v>
       </c>
       <c r="J350" s="0" t="s">
-        <v>748</v>
+        <v>892</v>
       </c>
       <c r="K350" s="0" t="s">
-        <v>1088</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="351">
@@ -15668,10 +16157,10 @@
         <v>1.3500000000000001</v>
       </c>
       <c r="J351" s="0" t="s">
-        <v>749</v>
+        <v>893</v>
       </c>
       <c r="K351" s="0" t="s">
-        <v>950</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="352">
@@ -15703,10 +16192,10 @@
         <v>0.97999999999999998</v>
       </c>
       <c r="J352" s="0" t="s">
-        <v>748</v>
+        <v>894</v>
       </c>
       <c r="K352" s="0" t="s">
-        <v>1089</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="353">
@@ -15738,10 +16227,10 @@
         <v>1.6599999999999999</v>
       </c>
       <c r="J353" s="0" t="s">
-        <v>748</v>
+        <v>894</v>
       </c>
       <c r="K353" s="0" t="s">
-        <v>1090</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="354">
@@ -15773,10 +16262,10 @@
         <v>1.3300000000000001</v>
       </c>
       <c r="J354" s="0" t="s">
-        <v>749</v>
+        <v>895</v>
       </c>
       <c r="K354" s="0" t="s">
-        <v>921</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="355">
@@ -15808,10 +16297,10 @@
         <v>1.78</v>
       </c>
       <c r="J355" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K355" s="0" t="s">
-        <v>1091</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="356">
@@ -15843,10 +16332,10 @@
         <v>0.79000000000000004</v>
       </c>
       <c r="J356" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K356" s="0" t="s">
-        <v>1092</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="357">
@@ -15878,10 +16367,10 @@
         <v>0.37</v>
       </c>
       <c r="J357" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K357" s="0" t="s">
-        <v>1093</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="358">
@@ -15913,10 +16402,10 @@
         <v>1.3500000000000001</v>
       </c>
       <c r="J358" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K358" s="0" t="s">
-        <v>1094</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="359">
@@ -15948,10 +16437,10 @@
         <v>1.04</v>
       </c>
       <c r="J359" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K359" s="0" t="s">
-        <v>1095</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="360">
@@ -15981,10 +16470,10 @@
         <v>0</v>
       </c>
       <c r="J360" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K360" s="0" t="s">
-        <v>1096</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="361">
@@ -16014,10 +16503,10 @@
         <v>0</v>
       </c>
       <c r="J361" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K361" s="0" t="s">
-        <v>1091</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="362">
@@ -16047,10 +16536,10 @@
         <v>0</v>
       </c>
       <c r="J362" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K362" s="0" t="s">
-        <v>1097</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="363">
@@ -16080,10 +16569,10 @@
         <v>0</v>
       </c>
       <c r="J363" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K363" s="0" t="s">
-        <v>1098</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="364">
@@ -16113,10 +16602,10 @@
         <v>0</v>
       </c>
       <c r="J364" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K364" s="0" t="s">
-        <v>1099</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="365">
@@ -16146,10 +16635,10 @@
         <v>0</v>
       </c>
       <c r="J365" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K365" s="0" t="s">
-        <v>1100</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="366">
@@ -16179,10 +16668,10 @@
         <v>0</v>
       </c>
       <c r="J366" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K366" s="0" t="s">
-        <v>854</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="367">
@@ -16212,10 +16701,10 @@
         <v>0</v>
       </c>
       <c r="J367" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K367" s="0" t="s">
-        <v>1101</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="368">
@@ -16245,10 +16734,10 @@
         <v>0</v>
       </c>
       <c r="J368" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K368" s="0" t="s">
-        <v>1098</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="369">
@@ -16278,10 +16767,10 @@
         <v>0</v>
       </c>
       <c r="J369" s="0" t="s">
-        <v>748</v>
+        <v>896</v>
       </c>
       <c r="K369" s="0" t="s">
-        <v>1102</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="370">
@@ -16313,10 +16802,10 @@
         <v>0</v>
       </c>
       <c r="J370" s="0" t="s">
-        <v>749</v>
+        <v>897</v>
       </c>
       <c r="K370" s="0" t="s">
-        <v>1103</v>
+        <v>1267</v>
       </c>
     </row>
   </sheetData>

--- a/Apps/YouTubeAnalysis/Analysis/Content/Step01_TableDataAugmented.xlsx
+++ b/Apps/YouTubeAnalysis/Analysis/Content/Step01_TableDataAugmented.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1487" uniqueCount="1104">
   <si>
     <t>Content</t>
   </si>
@@ -2265,450 +2265,6 @@
     <t>Education</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
     <t>VideoDuration</t>
   </si>
   <si>
@@ -2922,9 +2478,6 @@
     <t>55:14</t>
   </si>
   <si>
-    <t>6:59</t>
-  </si>
-  <si>
     <t>45:39</t>
   </si>
   <si>
@@ -3438,9 +2991,6 @@
     <t>22:54</t>
   </si>
   <si>
-    <t>14:37</t>
-  </si>
-  <si>
     <t>1:08:04</t>
   </si>
   <si>
@@ -3513,9 +3063,6 @@
     <t>19:23</t>
   </si>
   <si>
-    <t>5:05</t>
-  </si>
-  <si>
     <t>9:48</t>
   </si>
   <si>
@@ -3570,9 +3117,6 @@
     <t>30:19</t>
   </si>
   <si>
-    <t>43:50</t>
-  </si>
-  <si>
     <t>41:25</t>
   </si>
   <si>
@@ -3582,9 +3126,6 @@
     <t>4:23</t>
   </si>
   <si>
-    <t>11:55</t>
-  </si>
-  <si>
     <t>38:58</t>
   </si>
   <si>
@@ -3594,15 +3135,9 @@
     <t>4:32</t>
   </si>
   <si>
-    <t>4:44</t>
-  </si>
-  <si>
     <t>3:08</t>
   </si>
   <si>
-    <t>28:05</t>
-  </si>
-  <si>
     <t>16:16</t>
   </si>
   <si>
@@ -3660,9 +3195,6 @@
     <t>17:14</t>
   </si>
   <si>
-    <t>8:36</t>
-  </si>
-  <si>
     <t>10:45</t>
   </si>
   <si>
@@ -3696,9 +3228,6 @@
     <t>13:40</t>
   </si>
   <si>
-    <t>16:28</t>
-  </si>
-  <si>
     <t>4:17</t>
   </si>
   <si>
@@ -3735,18 +3264,12 @@
     <t>7:45</t>
   </si>
   <si>
-    <t>15:02</t>
-  </si>
-  <si>
     <t>4:12</t>
   </si>
   <si>
     <t>3:25</t>
   </si>
   <si>
-    <t>9:48</t>
-  </si>
-  <si>
     <t>29:50</t>
   </si>
   <si>
@@ -3759,18 +3282,12 @@
     <t>7:26</t>
   </si>
   <si>
-    <t>19:14</t>
-  </si>
-  <si>
     <t>9:29</t>
   </si>
   <si>
     <t>6:44</t>
   </si>
   <si>
-    <t>10:53</t>
-  </si>
-  <si>
     <t>1:37</t>
   </si>
   <si>
@@ -3789,9 +3306,6 @@
     <t>1:14</t>
   </si>
   <si>
-    <t>1:37</t>
-  </si>
-  <si>
     <t>1:49</t>
   </si>
   <si>
@@ -3804,13 +3318,7 @@
     <t>0:34</t>
   </si>
   <si>
-    <t>15:56</t>
-  </si>
-  <si>
     <t>1:48</t>
-  </si>
-  <si>
-    <t>1:03</t>
   </si>
   <si>
     <t>0:43</t>
@@ -3822,7 +3330,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -3861,21 +3369,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K370"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="true"/>
-    <col min="2" max="2" width="83.2578125" customWidth="true"/>
-    <col min="3" max="3" width="15.984375" customWidth="true"/>
-    <col min="4" max="4" width="8.16796875" customWidth="true"/>
-    <col min="5" max="5" width="17.44140625" customWidth="true"/>
-    <col min="6" max="6" width="10.7109375" customWidth="true"/>
-    <col min="7" max="7" width="22.07421875" customWidth="true"/>
-    <col min="8" max="8" width="11.2578125" customWidth="true"/>
-    <col min="9" max="9" width="29.34765625" customWidth="true"/>
-    <col min="10" max="10" width="11.984375" customWidth="true"/>
-    <col min="11" max="11" width="13.2578125" customWidth="true"/>
+    <col min="1" max="1" width="16" customWidth="true"/>
+    <col min="2" max="2" width="88.7109375" customWidth="true"/>
+    <col min="3" max="3" width="17.42578125" customWidth="true"/>
+    <col min="4" max="4" width="8.140625" customWidth="true"/>
+    <col min="5" max="5" width="18.140625" customWidth="true"/>
+    <col min="6" max="6" width="11.28515625" customWidth="true"/>
+    <col min="7" max="7" width="23.42578125" customWidth="true"/>
+    <col min="8" max="8" width="11.85546875" customWidth="true"/>
+    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="10" max="10" width="12.85546875" customWidth="true"/>
+    <col min="11" max="11" width="14.140625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3910,7 +3421,7 @@
         <v>747</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>898</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2">
@@ -3945,7 +3456,7 @@
         <v>748</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>899</v>
+        <v>751</v>
       </c>
     </row>
     <row r="3">
@@ -3980,7 +3491,7 @@
         <v>748</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>900</v>
+        <v>752</v>
       </c>
     </row>
     <row r="4">
@@ -4015,7 +3526,7 @@
         <v>749</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>901</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5">
@@ -4047,10 +3558,10 @@
         <v>7.1399999999999997</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>902</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6">
@@ -4082,10 +3593,10 @@
         <v>5.1900000000000004</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>903</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7">
@@ -4117,10 +3628,10 @@
         <v>3.1499999999999999</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>904</v>
+        <v>756</v>
       </c>
     </row>
     <row r="8">
@@ -4152,10 +3663,10 @@
         <v>2.9700000000000002</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>905</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9">
@@ -4187,10 +3698,10 @@
         <v>4.1600000000000001</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>906</v>
+        <v>758</v>
       </c>
     </row>
     <row r="10">
@@ -4222,10 +3733,10 @@
         <v>4.9199999999999999</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>907</v>
+        <v>759</v>
       </c>
     </row>
     <row r="11">
@@ -4257,10 +3768,10 @@
         <v>6.7400000000000002</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>908</v>
+        <v>760</v>
       </c>
     </row>
     <row r="12">
@@ -4292,10 +3803,10 @@
         <v>3.79</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>909</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13">
@@ -4327,10 +3838,10 @@
         <v>7.9800000000000004</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>910</v>
+        <v>762</v>
       </c>
     </row>
     <row r="14">
@@ -4362,10 +3873,10 @@
         <v>5.1500000000000004</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>911</v>
+        <v>763</v>
       </c>
     </row>
     <row r="15">
@@ -4397,10 +3908,10 @@
         <v>5.9400000000000004</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>912</v>
+        <v>764</v>
       </c>
     </row>
     <row r="16">
@@ -4432,10 +3943,10 @@
         <v>8.3499999999999996</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>913</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17">
@@ -4467,10 +3978,10 @@
         <v>4.0099999999999998</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>914</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18">
@@ -4502,10 +4013,10 @@
         <v>8.6600000000000001</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>915</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19">
@@ -4537,10 +4048,10 @@
         <v>4.1200000000000001</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>916</v>
+        <v>768</v>
       </c>
     </row>
     <row r="20">
@@ -4572,10 +4083,10 @@
         <v>5.0700000000000003</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>917</v>
+        <v>769</v>
       </c>
     </row>
     <row r="21">
@@ -4607,10 +4118,10 @@
         <v>3.6099999999999999</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>918</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22">
@@ -4642,10 +4153,10 @@
         <v>5.1100000000000003</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>919</v>
+        <v>771</v>
       </c>
     </row>
     <row r="23">
@@ -4677,10 +4188,10 @@
         <v>4.4299999999999997</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>920</v>
+        <v>772</v>
       </c>
     </row>
     <row r="24">
@@ -4712,10 +4223,10 @@
         <v>4.2599999999999998</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>921</v>
+        <v>773</v>
       </c>
     </row>
     <row r="25">
@@ -4747,10 +4258,10 @@
         <v>3.6000000000000001</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>922</v>
+        <v>774</v>
       </c>
     </row>
     <row r="26">
@@ -4782,10 +4293,10 @@
         <v>5.71</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>923</v>
+        <v>775</v>
       </c>
     </row>
     <row r="27">
@@ -4817,10 +4328,10 @@
         <v>7.3700000000000001</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>924</v>
+        <v>776</v>
       </c>
     </row>
     <row r="28">
@@ -4852,10 +4363,10 @@
         <v>7.9400000000000004</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>925</v>
+        <v>777</v>
       </c>
     </row>
     <row r="29">
@@ -4887,10 +4398,10 @@
         <v>6.1900000000000004</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>926</v>
+        <v>778</v>
       </c>
     </row>
     <row r="30">
@@ -4922,10 +4433,10 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>927</v>
+        <v>779</v>
       </c>
     </row>
     <row r="31">
@@ -4957,10 +4468,10 @@
         <v>3.7000000000000002</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>928</v>
+        <v>780</v>
       </c>
     </row>
     <row r="32">
@@ -4992,10 +4503,10 @@
         <v>5</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>929</v>
+        <v>781</v>
       </c>
     </row>
     <row r="33">
@@ -5027,10 +4538,10 @@
         <v>10.359999999999999</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>930</v>
+        <v>782</v>
       </c>
     </row>
     <row r="34">
@@ -5062,10 +4573,10 @@
         <v>7.0700000000000003</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>931</v>
+        <v>783</v>
       </c>
     </row>
     <row r="35">
@@ -5097,10 +4608,10 @@
         <v>3.9300000000000002</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>932</v>
+        <v>784</v>
       </c>
     </row>
     <row r="36">
@@ -5132,10 +4643,10 @@
         <v>6.0499999999999998</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>933</v>
+        <v>785</v>
       </c>
     </row>
     <row r="37">
@@ -5167,10 +4678,10 @@
         <v>4.5700000000000003</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>934</v>
+        <v>786</v>
       </c>
     </row>
     <row r="38">
@@ -5202,10 +4713,10 @@
         <v>9.1699999999999999</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>935</v>
+        <v>787</v>
       </c>
     </row>
     <row r="39">
@@ -5237,10 +4748,10 @@
         <v>5.8700000000000001</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>936</v>
+        <v>788</v>
       </c>
     </row>
     <row r="40">
@@ -5272,10 +4783,10 @@
         <v>9.9199999999999999</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>937</v>
+        <v>789</v>
       </c>
     </row>
     <row r="41">
@@ -5307,10 +4818,10 @@
         <v>5.4299999999999997</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>938</v>
+        <v>790</v>
       </c>
     </row>
     <row r="42">
@@ -5342,10 +4853,10 @@
         <v>3.6299999999999999</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>939</v>
+        <v>791</v>
       </c>
     </row>
     <row r="43">
@@ -5377,10 +4888,10 @@
         <v>8.6699999999999999</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>940</v>
+        <v>792</v>
       </c>
     </row>
     <row r="44">
@@ -5412,10 +4923,10 @@
         <v>3.5699999999999998</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>941</v>
+        <v>793</v>
       </c>
     </row>
     <row r="45">
@@ -5447,10 +4958,10 @@
         <v>5.5999999999999996</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>942</v>
+        <v>794</v>
       </c>
     </row>
     <row r="46">
@@ -5482,10 +4993,10 @@
         <v>4.7400000000000002</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>943</v>
+        <v>795</v>
       </c>
     </row>
     <row r="47">
@@ -5517,10 +5028,10 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>766</v>
+        <v>748</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>944</v>
+        <v>796</v>
       </c>
     </row>
     <row r="48">
@@ -5552,10 +5063,10 @@
         <v>4.0800000000000001</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>945</v>
+        <v>797</v>
       </c>
     </row>
     <row r="49">
@@ -5587,10 +5098,10 @@
         <v>6.1900000000000004</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>946</v>
+        <v>798</v>
       </c>
     </row>
     <row r="50">
@@ -5622,10 +5133,10 @@
         <v>4.7199999999999998</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>947</v>
+        <v>799</v>
       </c>
     </row>
     <row r="51">
@@ -5657,10 +5168,10 @@
         <v>3.21</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>948</v>
+        <v>800</v>
       </c>
     </row>
     <row r="52">
@@ -5692,10 +5203,10 @@
         <v>3.6099999999999999</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>767</v>
+        <v>749</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>949</v>
+        <v>801</v>
       </c>
     </row>
     <row r="53">
@@ -5727,10 +5238,10 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>950</v>
+        <v>802</v>
       </c>
     </row>
     <row r="54">
@@ -5762,10 +5273,10 @@
         <v>3.8199999999999998</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>951</v>
+        <v>803</v>
       </c>
     </row>
     <row r="55">
@@ -5797,10 +5308,10 @@
         <v>3.4199999999999999</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>952</v>
+        <v>804</v>
       </c>
     </row>
     <row r="56">
@@ -5832,10 +5343,10 @@
         <v>8.0899999999999999</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>953</v>
+        <v>805</v>
       </c>
     </row>
     <row r="57">
@@ -5867,10 +5378,10 @@
         <v>3.46</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>954</v>
+        <v>806</v>
       </c>
     </row>
     <row r="58">
@@ -5902,10 +5413,10 @@
         <v>1.05</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>955</v>
+        <v>807</v>
       </c>
     </row>
     <row r="59">
@@ -5937,10 +5448,10 @@
         <v>5.1200000000000001</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>956</v>
+        <v>808</v>
       </c>
     </row>
     <row r="60">
@@ -5972,10 +5483,10 @@
         <v>5.0099999999999998</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>957</v>
+        <v>809</v>
       </c>
     </row>
     <row r="61">
@@ -6007,10 +5518,10 @@
         <v>6.1699999999999999</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>958</v>
+        <v>810</v>
       </c>
     </row>
     <row r="62">
@@ -6042,10 +5553,10 @@
         <v>4.8700000000000001</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>959</v>
+        <v>811</v>
       </c>
     </row>
     <row r="63">
@@ -6077,10 +5588,10 @@
         <v>7.46</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>960</v>
+        <v>812</v>
       </c>
     </row>
     <row r="64">
@@ -6112,10 +5623,10 @@
         <v>2.96</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>961</v>
+        <v>813</v>
       </c>
     </row>
     <row r="65">
@@ -6147,10 +5658,10 @@
         <v>6.5700000000000003</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>962</v>
+        <v>814</v>
       </c>
     </row>
     <row r="66">
@@ -6182,10 +5693,10 @@
         <v>5.4100000000000001</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>963</v>
+        <v>815</v>
       </c>
     </row>
     <row r="67">
@@ -6217,10 +5728,10 @@
         <v>4</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>964</v>
+        <v>816</v>
       </c>
     </row>
     <row r="68">
@@ -6252,10 +5763,10 @@
         <v>3.3300000000000001</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>965</v>
+        <v>817</v>
       </c>
     </row>
     <row r="69">
@@ -6287,10 +5798,10 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>966</v>
+        <v>818</v>
       </c>
     </row>
     <row r="70">
@@ -6322,10 +5833,10 @@
         <v>3.46</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>967</v>
+        <v>819</v>
       </c>
     </row>
     <row r="71">
@@ -6357,10 +5868,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>968</v>
+        <v>820</v>
       </c>
     </row>
     <row r="72">
@@ -6392,10 +5903,10 @@
         <v>5.1399999999999997</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>969</v>
+        <v>764</v>
       </c>
     </row>
     <row r="73">
@@ -6427,10 +5938,10 @@
         <v>3</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>970</v>
+        <v>821</v>
       </c>
     </row>
     <row r="74">
@@ -6462,10 +5973,10 @@
         <v>2.98</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>971</v>
+        <v>822</v>
       </c>
     </row>
     <row r="75">
@@ -6497,10 +6008,10 @@
         <v>3.1600000000000001</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>972</v>
+        <v>823</v>
       </c>
     </row>
     <row r="76">
@@ -6532,10 +6043,10 @@
         <v>5.4299999999999997</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>778</v>
+        <v>748</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>973</v>
+        <v>824</v>
       </c>
     </row>
     <row r="77">
@@ -6567,10 +6078,10 @@
         <v>4.0599999999999996</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>779</v>
+        <v>749</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>974</v>
+        <v>825</v>
       </c>
     </row>
     <row r="78">
@@ -6602,10 +6113,10 @@
         <v>4.2000000000000002</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>779</v>
+        <v>749</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>975</v>
+        <v>826</v>
       </c>
     </row>
     <row r="79">
@@ -6637,10 +6148,10 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>976</v>
+        <v>827</v>
       </c>
     </row>
     <row r="80">
@@ -6672,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>781</v>
+        <v>749</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>977</v>
+        <v>828</v>
       </c>
     </row>
     <row r="81">
@@ -6707,10 +6218,10 @@
         <v>3.7200000000000002</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>782</v>
+        <v>748</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>978</v>
+        <v>829</v>
       </c>
     </row>
     <row r="82">
@@ -6742,10 +6253,10 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>782</v>
+        <v>748</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>979</v>
+        <v>830</v>
       </c>
     </row>
     <row r="83">
@@ -6777,10 +6288,10 @@
         <v>6.0800000000000001</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>783</v>
+        <v>749</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>980</v>
+        <v>831</v>
       </c>
     </row>
     <row r="84">
@@ -6812,10 +6323,10 @@
         <v>4.7199999999999998</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>783</v>
+        <v>749</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>981</v>
+        <v>832</v>
       </c>
     </row>
     <row r="85">
@@ -6847,10 +6358,10 @@
         <v>4.4500000000000002</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>783</v>
+        <v>749</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>982</v>
+        <v>833</v>
       </c>
     </row>
     <row r="86">
@@ -6882,10 +6393,10 @@
         <v>6.0199999999999996</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>784</v>
+        <v>748</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>983</v>
+        <v>834</v>
       </c>
     </row>
     <row r="87">
@@ -6917,10 +6428,10 @@
         <v>4.4699999999999998</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>785</v>
+        <v>749</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>984</v>
+        <v>835</v>
       </c>
     </row>
     <row r="88">
@@ -6952,10 +6463,10 @@
         <v>6.7199999999999998</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>786</v>
+        <v>748</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>985</v>
+        <v>836</v>
       </c>
     </row>
     <row r="89">
@@ -6987,10 +6498,10 @@
         <v>4.0899999999999999</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>986</v>
+        <v>837</v>
       </c>
     </row>
     <row r="90">
@@ -7022,10 +6533,10 @@
         <v>3.4300000000000002</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>987</v>
+        <v>838</v>
       </c>
     </row>
     <row r="91">
@@ -7057,10 +6568,10 @@
         <v>3.2799999999999998</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>988</v>
+        <v>839</v>
       </c>
     </row>
     <row r="92">
@@ -7092,10 +6603,10 @@
         <v>5.3799999999999999</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>989</v>
+        <v>840</v>
       </c>
     </row>
     <row r="93">
@@ -7127,10 +6638,10 @@
         <v>3.7999999999999998</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>990</v>
+        <v>841</v>
       </c>
     </row>
     <row r="94">
@@ -7162,10 +6673,10 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>991</v>
+        <v>842</v>
       </c>
     </row>
     <row r="95">
@@ -7197,10 +6708,10 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>992</v>
+        <v>843</v>
       </c>
     </row>
     <row r="96">
@@ -7232,10 +6743,10 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>993</v>
+        <v>844</v>
       </c>
     </row>
     <row r="97">
@@ -7267,10 +6778,10 @@
         <v>3.5</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>994</v>
+        <v>845</v>
       </c>
     </row>
     <row r="98">
@@ -7302,10 +6813,10 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>995</v>
+        <v>846</v>
       </c>
     </row>
     <row r="99">
@@ -7337,10 +6848,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>787</v>
+        <v>749</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>996</v>
+        <v>847</v>
       </c>
     </row>
     <row r="100">
@@ -7372,10 +6883,10 @@
         <v>7.2199999999999998</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>788</v>
+        <v>748</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>997</v>
+        <v>848</v>
       </c>
     </row>
     <row r="101">
@@ -7407,10 +6918,10 @@
         <v>2.8500000000000001</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>789</v>
+        <v>749</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>998</v>
+        <v>849</v>
       </c>
     </row>
     <row r="102">
@@ -7442,10 +6953,10 @@
         <v>6.8600000000000003</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>790</v>
+        <v>748</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>999</v>
+        <v>850</v>
       </c>
     </row>
     <row r="103">
@@ -7477,10 +6988,10 @@
         <v>3.5499999999999998</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>791</v>
+        <v>749</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>1000</v>
+        <v>851</v>
       </c>
     </row>
     <row r="104">
@@ -7512,10 +7023,10 @@
         <v>5.9900000000000002</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>791</v>
+        <v>749</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>1001</v>
+        <v>852</v>
       </c>
     </row>
     <row r="105">
@@ -7547,10 +7058,10 @@
         <v>3.8100000000000001</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>792</v>
+        <v>748</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>1002</v>
+        <v>853</v>
       </c>
     </row>
     <row r="106">
@@ -7582,10 +7093,10 @@
         <v>4.3700000000000001</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>792</v>
+        <v>748</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>1003</v>
+        <v>854</v>
       </c>
     </row>
     <row r="107">
@@ -7617,10 +7128,10 @@
         <v>2.52</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>793</v>
+        <v>749</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>1004</v>
+        <v>855</v>
       </c>
     </row>
     <row r="108">
@@ -7652,10 +7163,10 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>793</v>
+        <v>749</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>1005</v>
+        <v>856</v>
       </c>
     </row>
     <row r="109">
@@ -7687,10 +7198,10 @@
         <v>3.21</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>793</v>
+        <v>749</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>1006</v>
+        <v>857</v>
       </c>
     </row>
     <row r="110">
@@ -7722,10 +7233,10 @@
         <v>4.2300000000000004</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>793</v>
+        <v>749</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>1007</v>
+        <v>858</v>
       </c>
     </row>
     <row r="111">
@@ -7757,10 +7268,10 @@
         <v>5.8399999999999999</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>793</v>
+        <v>749</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>1008</v>
+        <v>859</v>
       </c>
     </row>
     <row r="112">
@@ -7792,10 +7303,10 @@
         <v>3.52</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>794</v>
+        <v>748</v>
       </c>
       <c r="K112" s="0" t="s">
-        <v>1009</v>
+        <v>860</v>
       </c>
     </row>
     <row r="113">
@@ -7827,10 +7338,10 @@
         <v>6.1799999999999997</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>1010</v>
+        <v>861</v>
       </c>
     </row>
     <row r="114">
@@ -7862,10 +7373,10 @@
         <v>2.6299999999999999</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K114" s="0" t="s">
-        <v>1011</v>
+        <v>862</v>
       </c>
     </row>
     <row r="115">
@@ -7897,10 +7408,10 @@
         <v>4.4199999999999999</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K115" s="0" t="s">
-        <v>1012</v>
+        <v>863</v>
       </c>
     </row>
     <row r="116">
@@ -7932,10 +7443,10 @@
         <v>3.1600000000000001</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K116" s="0" t="s">
-        <v>1013</v>
+        <v>864</v>
       </c>
     </row>
     <row r="117">
@@ -7967,10 +7478,10 @@
         <v>3.8399999999999999</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>1014</v>
+        <v>865</v>
       </c>
     </row>
     <row r="118">
@@ -8002,10 +7513,10 @@
         <v>3.96</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K118" s="0" t="s">
-        <v>1015</v>
+        <v>866</v>
       </c>
     </row>
     <row r="119">
@@ -8037,10 +7548,10 @@
         <v>6.8200000000000003</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K119" s="0" t="s">
-        <v>1016</v>
+        <v>867</v>
       </c>
     </row>
     <row r="120">
@@ -8072,10 +7583,10 @@
         <v>2.6000000000000001</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K120" s="0" t="s">
-        <v>1017</v>
+        <v>868</v>
       </c>
     </row>
     <row r="121">
@@ -8107,10 +7618,10 @@
         <v>3.6400000000000001</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K121" s="0" t="s">
-        <v>1018</v>
+        <v>869</v>
       </c>
     </row>
     <row r="122">
@@ -8142,10 +7653,10 @@
         <v>3.2200000000000002</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K122" s="0" t="s">
-        <v>1019</v>
+        <v>870</v>
       </c>
     </row>
     <row r="123">
@@ -8177,10 +7688,10 @@
         <v>2.7799999999999998</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K123" s="0" t="s">
-        <v>1020</v>
+        <v>871</v>
       </c>
     </row>
     <row r="124">
@@ -8212,10 +7723,10 @@
         <v>3.8900000000000001</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K124" s="0" t="s">
-        <v>1021</v>
+        <v>872</v>
       </c>
     </row>
     <row r="125">
@@ -8247,10 +7758,10 @@
         <v>2.1400000000000001</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K125" s="0" t="s">
-        <v>1022</v>
+        <v>873</v>
       </c>
     </row>
     <row r="126">
@@ -8282,10 +7793,10 @@
         <v>2.75</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>795</v>
+        <v>749</v>
       </c>
       <c r="K126" s="0" t="s">
-        <v>1023</v>
+        <v>874</v>
       </c>
     </row>
     <row r="127">
@@ -8317,10 +7828,10 @@
         <v>1.3799999999999999</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>796</v>
+        <v>748</v>
       </c>
       <c r="K127" s="0" t="s">
-        <v>1024</v>
+        <v>875</v>
       </c>
     </row>
     <row r="128">
@@ -8352,10 +7863,10 @@
         <v>3.21</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>796</v>
+        <v>748</v>
       </c>
       <c r="K128" s="0" t="s">
-        <v>1025</v>
+        <v>876</v>
       </c>
     </row>
     <row r="129">
@@ -8387,10 +7898,10 @@
         <v>2.5600000000000001</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>796</v>
+        <v>748</v>
       </c>
       <c r="K129" s="0" t="s">
-        <v>1026</v>
+        <v>877</v>
       </c>
     </row>
     <row r="130">
@@ -8422,10 +7933,10 @@
         <v>4.1799999999999997</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>796</v>
+        <v>748</v>
       </c>
       <c r="K130" s="0" t="s">
-        <v>1027</v>
+        <v>878</v>
       </c>
     </row>
     <row r="131">
@@ -8457,10 +7968,10 @@
         <v>3.02</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>1028</v>
+        <v>879</v>
       </c>
     </row>
     <row r="132">
@@ -8492,10 +8003,10 @@
         <v>2.71</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="K132" s="0" t="s">
-        <v>1029</v>
+        <v>880</v>
       </c>
     </row>
     <row r="133">
@@ -8527,10 +8038,10 @@
         <v>2.52</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="K133" s="0" t="s">
-        <v>1030</v>
+        <v>881</v>
       </c>
     </row>
     <row r="134">
@@ -8562,10 +8073,10 @@
         <v>3.6899999999999999</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="K134" s="0" t="s">
-        <v>1031</v>
+        <v>882</v>
       </c>
     </row>
     <row r="135">
@@ -8597,10 +8108,10 @@
         <v>3.3399999999999999</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="K135" s="0" t="s">
-        <v>1032</v>
+        <v>883</v>
       </c>
     </row>
     <row r="136">
@@ -8632,10 +8143,10 @@
         <v>3.5600000000000001</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="K136" s="0" t="s">
-        <v>1033</v>
+        <v>884</v>
       </c>
     </row>
     <row r="137">
@@ -8667,10 +8178,10 @@
         <v>3.0899999999999999</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="K137" s="0" t="s">
-        <v>1034</v>
+        <v>885</v>
       </c>
     </row>
     <row r="138">
@@ -8702,10 +8213,10 @@
         <v>3.0899999999999999</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>797</v>
+        <v>749</v>
       </c>
       <c r="K138" s="0" t="s">
-        <v>1035</v>
+        <v>886</v>
       </c>
     </row>
     <row r="139">
@@ -8737,10 +8248,10 @@
         <v>4.6600000000000001</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>798</v>
+        <v>748</v>
       </c>
       <c r="K139" s="0" t="s">
-        <v>1036</v>
+        <v>887</v>
       </c>
     </row>
     <row r="140">
@@ -8772,10 +8283,10 @@
         <v>3.8999999999999999</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>798</v>
+        <v>748</v>
       </c>
       <c r="K140" s="0" t="s">
-        <v>1037</v>
+        <v>888</v>
       </c>
     </row>
     <row r="141">
@@ -8807,10 +8318,10 @@
         <v>3.7200000000000002</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>1038</v>
+        <v>889</v>
       </c>
     </row>
     <row r="142">
@@ -8842,10 +8353,10 @@
         <v>2.9900000000000002</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>800</v>
+        <v>748</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>1039</v>
+        <v>890</v>
       </c>
     </row>
     <row r="143">
@@ -8877,10 +8388,10 @@
         <v>3.1800000000000002</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>801</v>
+        <v>749</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>1040</v>
+        <v>891</v>
       </c>
     </row>
     <row r="144">
@@ -8912,10 +8423,10 @@
         <v>3.5600000000000001</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>801</v>
+        <v>749</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>1041</v>
+        <v>892</v>
       </c>
     </row>
     <row r="145">
@@ -8947,10 +8458,10 @@
         <v>4.3700000000000001</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>801</v>
+        <v>749</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>1042</v>
+        <v>893</v>
       </c>
     </row>
     <row r="146">
@@ -8982,10 +8493,10 @@
         <v>1.48</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>802</v>
+        <v>748</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>1043</v>
+        <v>894</v>
       </c>
     </row>
     <row r="147">
@@ -9017,10 +8528,10 @@
         <v>2.3999999999999999</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>803</v>
+        <v>749</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>1044</v>
+        <v>895</v>
       </c>
     </row>
     <row r="148">
@@ -9052,10 +8563,10 @@
         <v>2.6200000000000001</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>803</v>
+        <v>749</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>1045</v>
+        <v>896</v>
       </c>
     </row>
     <row r="149">
@@ -9087,10 +8598,10 @@
         <v>6.1200000000000001</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>804</v>
+        <v>748</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>1046</v>
+        <v>897</v>
       </c>
     </row>
     <row r="150">
@@ -9122,10 +8633,10 @@
         <v>3.8599999999999999</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>805</v>
+        <v>749</v>
       </c>
       <c r="K150" s="0" t="s">
-        <v>1047</v>
+        <v>898</v>
       </c>
     </row>
     <row r="151">
@@ -9157,10 +8668,10 @@
         <v>2.1899999999999999</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>806</v>
+        <v>748</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>1048</v>
+        <v>899</v>
       </c>
     </row>
     <row r="152">
@@ -9192,10 +8703,10 @@
         <v>1.79</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>807</v>
+        <v>749</v>
       </c>
       <c r="K152" s="0" t="s">
-        <v>1049</v>
+        <v>900</v>
       </c>
     </row>
     <row r="153">
@@ -9227,10 +8738,10 @@
         <v>4.9900000000000002</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>807</v>
+        <v>749</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>1050</v>
+        <v>901</v>
       </c>
     </row>
     <row r="154">
@@ -9262,10 +8773,10 @@
         <v>3.79</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>807</v>
+        <v>749</v>
       </c>
       <c r="K154" s="0" t="s">
-        <v>1051</v>
+        <v>902</v>
       </c>
     </row>
     <row r="155">
@@ -9297,10 +8808,10 @@
         <v>2.29</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>807</v>
+        <v>749</v>
       </c>
       <c r="K155" s="0" t="s">
-        <v>1052</v>
+        <v>903</v>
       </c>
     </row>
     <row r="156">
@@ -9332,10 +8843,10 @@
         <v>3.75</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>808</v>
+        <v>748</v>
       </c>
       <c r="K156" s="0" t="s">
-        <v>1053</v>
+        <v>904</v>
       </c>
     </row>
     <row r="157">
@@ -9367,10 +8878,10 @@
         <v>2.1000000000000001</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="K157" s="0" t="s">
-        <v>1054</v>
+        <v>905</v>
       </c>
     </row>
     <row r="158">
@@ -9402,10 +8913,10 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="K158" s="0" t="s">
-        <v>1055</v>
+        <v>906</v>
       </c>
     </row>
     <row r="159">
@@ -9437,10 +8948,10 @@
         <v>2.4399999999999999</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="K159" s="0" t="s">
-        <v>1056</v>
+        <v>907</v>
       </c>
     </row>
     <row r="160">
@@ -9472,10 +8983,10 @@
         <v>3.8100000000000001</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>809</v>
+        <v>749</v>
       </c>
       <c r="K160" s="0" t="s">
-        <v>1057</v>
+        <v>908</v>
       </c>
     </row>
     <row r="161">
@@ -9507,10 +9018,10 @@
         <v>4.2000000000000002</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>810</v>
+        <v>748</v>
       </c>
       <c r="K161" s="0" t="s">
-        <v>1058</v>
+        <v>909</v>
       </c>
     </row>
     <row r="162">
@@ -9542,10 +9053,10 @@
         <v>7.46</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>811</v>
+        <v>749</v>
       </c>
       <c r="K162" s="0" t="s">
-        <v>1059</v>
+        <v>910</v>
       </c>
     </row>
     <row r="163">
@@ -9577,10 +9088,10 @@
         <v>2.3399999999999999</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>811</v>
+        <v>749</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>1060</v>
+        <v>911</v>
       </c>
     </row>
     <row r="164">
@@ -9612,10 +9123,10 @@
         <v>2.4399999999999999</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>811</v>
+        <v>749</v>
       </c>
       <c r="K164" s="0" t="s">
-        <v>1061</v>
+        <v>912</v>
       </c>
     </row>
     <row r="165">
@@ -9647,10 +9158,10 @@
         <v>3.6200000000000001</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>811</v>
+        <v>749</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>1062</v>
+        <v>913</v>
       </c>
     </row>
     <row r="166">
@@ -9682,10 +9193,10 @@
         <v>2.1600000000000001</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>811</v>
+        <v>749</v>
       </c>
       <c r="K166" s="0" t="s">
-        <v>1063</v>
+        <v>914</v>
       </c>
     </row>
     <row r="167">
@@ -9717,10 +9228,10 @@
         <v>2.3399999999999999</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>811</v>
+        <v>749</v>
       </c>
       <c r="K167" s="0" t="s">
-        <v>1064</v>
+        <v>915</v>
       </c>
     </row>
     <row r="168">
@@ -9752,10 +9263,10 @@
         <v>3.3100000000000001</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>811</v>
+        <v>749</v>
       </c>
       <c r="K168" s="0" t="s">
-        <v>1065</v>
+        <v>916</v>
       </c>
     </row>
     <row r="169">
@@ -9787,10 +9298,10 @@
         <v>3.4300000000000002</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>812</v>
+        <v>748</v>
       </c>
       <c r="K169" s="0" t="s">
-        <v>1066</v>
+        <v>917</v>
       </c>
     </row>
     <row r="170">
@@ -9822,10 +9333,10 @@
         <v>2.3399999999999999</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>812</v>
+        <v>748</v>
       </c>
       <c r="K170" s="0" t="s">
-        <v>1067</v>
+        <v>918</v>
       </c>
     </row>
     <row r="171">
@@ -9857,10 +9368,10 @@
         <v>3.75</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>812</v>
+        <v>748</v>
       </c>
       <c r="K171" s="0" t="s">
-        <v>1068</v>
+        <v>919</v>
       </c>
     </row>
     <row r="172">
@@ -9892,10 +9403,10 @@
         <v>2.9100000000000001</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>813</v>
+        <v>749</v>
       </c>
       <c r="K172" s="0" t="s">
-        <v>1069</v>
+        <v>920</v>
       </c>
     </row>
     <row r="173">
@@ -9927,10 +9438,10 @@
         <v>4.75</v>
       </c>
       <c r="J173" s="0" t="s">
-        <v>814</v>
+        <v>748</v>
       </c>
       <c r="K173" s="0" t="s">
-        <v>1070</v>
+        <v>921</v>
       </c>
     </row>
     <row r="174">
@@ -9962,10 +9473,10 @@
         <v>2.9300000000000002</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>815</v>
+        <v>749</v>
       </c>
       <c r="K174" s="0" t="s">
-        <v>1071</v>
+        <v>922</v>
       </c>
     </row>
     <row r="175">
@@ -9997,10 +9508,10 @@
         <v>3.2799999999999998</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>815</v>
+        <v>749</v>
       </c>
       <c r="K175" s="0" t="s">
-        <v>1072</v>
+        <v>923</v>
       </c>
     </row>
     <row r="176">
@@ -10032,10 +9543,10 @@
         <v>2.4199999999999999</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>815</v>
+        <v>749</v>
       </c>
       <c r="K176" s="0" t="s">
-        <v>1073</v>
+        <v>924</v>
       </c>
     </row>
     <row r="177">
@@ -10067,10 +9578,10 @@
         <v>2.8300000000000001</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>816</v>
+        <v>748</v>
       </c>
       <c r="K177" s="0" t="s">
-        <v>1074</v>
+        <v>925</v>
       </c>
     </row>
     <row r="178">
@@ -10102,10 +9613,10 @@
         <v>2.9399999999999999</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>816</v>
+        <v>748</v>
       </c>
       <c r="K178" s="0" t="s">
-        <v>1075</v>
+        <v>926</v>
       </c>
     </row>
     <row r="179">
@@ -10137,10 +9648,10 @@
         <v>3.96</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>816</v>
+        <v>748</v>
       </c>
       <c r="K179" s="0" t="s">
-        <v>1076</v>
+        <v>927</v>
       </c>
     </row>
     <row r="180">
@@ -10172,10 +9683,10 @@
         <v>2.7999999999999998</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>816</v>
+        <v>748</v>
       </c>
       <c r="K180" s="0" t="s">
-        <v>1077</v>
+        <v>928</v>
       </c>
     </row>
     <row r="181">
@@ -10207,10 +9718,10 @@
         <v>2.6800000000000002</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>817</v>
+        <v>749</v>
       </c>
       <c r="K181" s="0" t="s">
-        <v>1078</v>
+        <v>929</v>
       </c>
     </row>
     <row r="182">
@@ -10242,10 +9753,10 @@
         <v>3.1200000000000001</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>818</v>
+        <v>748</v>
       </c>
       <c r="K182" s="0" t="s">
-        <v>1079</v>
+        <v>930</v>
       </c>
     </row>
     <row r="183">
@@ -10277,10 +9788,10 @@
         <v>3.1200000000000001</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>819</v>
+        <v>749</v>
       </c>
       <c r="K183" s="0" t="s">
-        <v>1080</v>
+        <v>931</v>
       </c>
     </row>
     <row r="184">
@@ -10312,10 +9823,10 @@
         <v>2.8300000000000001</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>819</v>
+        <v>749</v>
       </c>
       <c r="K184" s="0" t="s">
-        <v>1081</v>
+        <v>932</v>
       </c>
     </row>
     <row r="185">
@@ -10347,10 +9858,10 @@
         <v>5.4400000000000004</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>820</v>
+        <v>748</v>
       </c>
       <c r="K185" s="0" t="s">
-        <v>1082</v>
+        <v>933</v>
       </c>
     </row>
     <row r="186">
@@ -10382,10 +9893,10 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>820</v>
+        <v>748</v>
       </c>
       <c r="K186" s="0" t="s">
-        <v>1083</v>
+        <v>934</v>
       </c>
     </row>
     <row r="187">
@@ -10417,10 +9928,10 @@
         <v>3.04</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="K187" s="0" t="s">
-        <v>1084</v>
+        <v>935</v>
       </c>
     </row>
     <row r="188">
@@ -10452,10 +9963,10 @@
         <v>2.21</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="K188" s="0" t="s">
-        <v>1085</v>
+        <v>936</v>
       </c>
     </row>
     <row r="189">
@@ -10487,10 +9998,10 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="K189" s="0" t="s">
-        <v>1086</v>
+        <v>937</v>
       </c>
     </row>
     <row r="190">
@@ -10522,10 +10033,10 @@
         <v>2.3799999999999999</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="K190" s="0" t="s">
-        <v>1087</v>
+        <v>938</v>
       </c>
     </row>
     <row r="191">
@@ -10557,10 +10068,10 @@
         <v>3.1000000000000001</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="K191" s="0" t="s">
-        <v>1088</v>
+        <v>939</v>
       </c>
     </row>
     <row r="192">
@@ -10592,10 +10103,10 @@
         <v>2.8599999999999999</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="K192" s="0" t="s">
-        <v>1089</v>
+        <v>940</v>
       </c>
     </row>
     <row r="193">
@@ -10627,10 +10138,10 @@
         <v>2.8999999999999999</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>821</v>
+        <v>749</v>
       </c>
       <c r="K193" s="0" t="s">
-        <v>1090</v>
+        <v>941</v>
       </c>
     </row>
     <row r="194">
@@ -10662,10 +10173,10 @@
         <v>3.6400000000000001</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>822</v>
+        <v>748</v>
       </c>
       <c r="K194" s="0" t="s">
-        <v>1091</v>
+        <v>942</v>
       </c>
     </row>
     <row r="195">
@@ -10697,10 +10208,10 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>822</v>
+        <v>748</v>
       </c>
       <c r="K195" s="0" t="s">
-        <v>1092</v>
+        <v>943</v>
       </c>
     </row>
     <row r="196">
@@ -10732,10 +10243,10 @@
         <v>2.77</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>823</v>
+        <v>749</v>
       </c>
       <c r="K196" s="0" t="s">
-        <v>1093</v>
+        <v>944</v>
       </c>
     </row>
     <row r="197">
@@ -10767,10 +10278,10 @@
         <v>4.0300000000000002</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>824</v>
+        <v>748</v>
       </c>
       <c r="K197" s="0" t="s">
-        <v>1094</v>
+        <v>945</v>
       </c>
     </row>
     <row r="198">
@@ -10802,10 +10313,10 @@
         <v>2.3399999999999999</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>824</v>
+        <v>748</v>
       </c>
       <c r="K198" s="0" t="s">
-        <v>1095</v>
+        <v>946</v>
       </c>
     </row>
     <row r="199">
@@ -10837,10 +10348,10 @@
         <v>5.5599999999999996</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>825</v>
+        <v>749</v>
       </c>
       <c r="K199" s="0" t="s">
-        <v>1096</v>
+        <v>947</v>
       </c>
     </row>
     <row r="200">
@@ -10872,10 +10383,10 @@
         <v>2.3599999999999999</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>825</v>
+        <v>749</v>
       </c>
       <c r="K200" s="0" t="s">
-        <v>1097</v>
+        <v>948</v>
       </c>
     </row>
     <row r="201">
@@ -10907,10 +10418,10 @@
         <v>2.7799999999999998</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>825</v>
+        <v>749</v>
       </c>
       <c r="K201" s="0" t="s">
-        <v>1098</v>
+        <v>949</v>
       </c>
     </row>
     <row r="202">
@@ -10942,10 +10453,10 @@
         <v>3.7999999999999998</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>826</v>
+        <v>748</v>
       </c>
       <c r="K202" s="0" t="s">
-        <v>1099</v>
+        <v>950</v>
       </c>
     </row>
     <row r="203">
@@ -10977,10 +10488,10 @@
         <v>1.74</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>827</v>
+        <v>749</v>
       </c>
       <c r="K203" s="0" t="s">
-        <v>1100</v>
+        <v>951</v>
       </c>
     </row>
     <row r="204">
@@ -11012,10 +10523,10 @@
         <v>1.9099999999999999</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>828</v>
+        <v>748</v>
       </c>
       <c r="K204" s="0" t="s">
-        <v>1101</v>
+        <v>952</v>
       </c>
     </row>
     <row r="205">
@@ -11047,10 +10558,10 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>828</v>
+        <v>748</v>
       </c>
       <c r="K205" s="0" t="s">
-        <v>1102</v>
+        <v>953</v>
       </c>
     </row>
     <row r="206">
@@ -11082,10 +10593,10 @@
         <v>3.2400000000000002</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>829</v>
+        <v>749</v>
       </c>
       <c r="K206" s="0" t="s">
-        <v>1103</v>
+        <v>954</v>
       </c>
     </row>
     <row r="207">
@@ -11117,10 +10628,10 @@
         <v>2.8300000000000001</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>830</v>
+        <v>748</v>
       </c>
       <c r="K207" s="0" t="s">
-        <v>1104</v>
+        <v>955</v>
       </c>
     </row>
     <row r="208">
@@ -11152,10 +10663,10 @@
         <v>2.7599999999999998</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>831</v>
+        <v>749</v>
       </c>
       <c r="K208" s="0" t="s">
-        <v>1105</v>
+        <v>956</v>
       </c>
     </row>
     <row r="209">
@@ -11187,10 +10698,10 @@
         <v>2.7599999999999998</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>832</v>
+        <v>748</v>
       </c>
       <c r="K209" s="0" t="s">
-        <v>1106</v>
+        <v>957</v>
       </c>
     </row>
     <row r="210">
@@ -11222,10 +10733,10 @@
         <v>3.04</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>833</v>
+        <v>749</v>
       </c>
       <c r="K210" s="0" t="s">
-        <v>1107</v>
+        <v>958</v>
       </c>
     </row>
     <row r="211">
@@ -11257,10 +10768,10 @@
         <v>1.51</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>833</v>
+        <v>749</v>
       </c>
       <c r="K211" s="0" t="s">
-        <v>1108</v>
+        <v>959</v>
       </c>
     </row>
     <row r="212">
@@ -11292,10 +10803,10 @@
         <v>1.8400000000000001</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>833</v>
+        <v>749</v>
       </c>
       <c r="K212" s="0" t="s">
-        <v>1109</v>
+        <v>960</v>
       </c>
     </row>
     <row r="213">
@@ -11327,10 +10838,10 @@
         <v>1.05</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>834</v>
+        <v>748</v>
       </c>
       <c r="K213" s="0" t="s">
-        <v>1110</v>
+        <v>961</v>
       </c>
     </row>
     <row r="214">
@@ -11362,10 +10873,10 @@
         <v>2.7400000000000002</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>834</v>
+        <v>748</v>
       </c>
       <c r="K214" s="0" t="s">
-        <v>1111</v>
+        <v>962</v>
       </c>
     </row>
     <row r="215">
@@ -11397,10 +10908,10 @@
         <v>4.0899999999999999</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>834</v>
+        <v>748</v>
       </c>
       <c r="K215" s="0" t="s">
-        <v>1112</v>
+        <v>963</v>
       </c>
     </row>
     <row r="216">
@@ -11432,10 +10943,10 @@
         <v>2.3999999999999999</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>835</v>
+        <v>749</v>
       </c>
       <c r="K216" s="0" t="s">
-        <v>1113</v>
+        <v>964</v>
       </c>
     </row>
     <row r="217">
@@ -11467,10 +10978,10 @@
         <v>1.8</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>835</v>
+        <v>749</v>
       </c>
       <c r="K217" s="0" t="s">
-        <v>1114</v>
+        <v>965</v>
       </c>
     </row>
     <row r="218">
@@ -11502,10 +11013,10 @@
         <v>1.8600000000000001</v>
       </c>
       <c r="J218" s="0" t="s">
-        <v>835</v>
+        <v>749</v>
       </c>
       <c r="K218" s="0" t="s">
-        <v>1115</v>
+        <v>966</v>
       </c>
     </row>
     <row r="219">
@@ -11537,10 +11048,10 @@
         <v>1.47</v>
       </c>
       <c r="J219" s="0" t="s">
-        <v>836</v>
+        <v>748</v>
       </c>
       <c r="K219" s="0" t="s">
-        <v>1116</v>
+        <v>967</v>
       </c>
     </row>
     <row r="220">
@@ -11572,10 +11083,10 @@
         <v>2.29</v>
       </c>
       <c r="J220" s="0" t="s">
-        <v>837</v>
+        <v>749</v>
       </c>
       <c r="K220" s="0" t="s">
-        <v>1117</v>
+        <v>968</v>
       </c>
     </row>
     <row r="221">
@@ -11607,10 +11118,10 @@
         <v>1.78</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>837</v>
+        <v>749</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>1118</v>
+        <v>969</v>
       </c>
     </row>
     <row r="222">
@@ -11642,10 +11153,10 @@
         <v>2.1200000000000001</v>
       </c>
       <c r="J222" s="0" t="s">
-        <v>837</v>
+        <v>749</v>
       </c>
       <c r="K222" s="0" t="s">
-        <v>1119</v>
+        <v>970</v>
       </c>
     </row>
     <row r="223">
@@ -11677,10 +11188,10 @@
         <v>1.74</v>
       </c>
       <c r="J223" s="0" t="s">
-        <v>837</v>
+        <v>749</v>
       </c>
       <c r="K223" s="0" t="s">
-        <v>1120</v>
+        <v>971</v>
       </c>
     </row>
     <row r="224">
@@ -11712,10 +11223,10 @@
         <v>3.9100000000000001</v>
       </c>
       <c r="J224" s="0" t="s">
-        <v>838</v>
+        <v>748</v>
       </c>
       <c r="K224" s="0" t="s">
-        <v>1121</v>
+        <v>972</v>
       </c>
     </row>
     <row r="225">
@@ -11747,10 +11258,10 @@
         <v>2.4199999999999999</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>839</v>
+        <v>749</v>
       </c>
       <c r="K225" s="0" t="s">
-        <v>1122</v>
+        <v>973</v>
       </c>
     </row>
     <row r="226">
@@ -11782,10 +11293,10 @@
         <v>2.1099999999999999</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>839</v>
+        <v>749</v>
       </c>
       <c r="K226" s="0" t="s">
-        <v>1123</v>
+        <v>974</v>
       </c>
     </row>
     <row r="227">
@@ -11817,10 +11328,10 @@
         <v>2.0899999999999999</v>
       </c>
       <c r="J227" s="0" t="s">
-        <v>839</v>
+        <v>749</v>
       </c>
       <c r="K227" s="0" t="s">
-        <v>1124</v>
+        <v>975</v>
       </c>
     </row>
     <row r="228">
@@ -11852,10 +11363,10 @@
         <v>1.8</v>
       </c>
       <c r="J228" s="0" t="s">
-        <v>839</v>
+        <v>749</v>
       </c>
       <c r="K228" s="0" t="s">
-        <v>1125</v>
+        <v>976</v>
       </c>
     </row>
     <row r="229">
@@ -11887,10 +11398,10 @@
         <v>2.25</v>
       </c>
       <c r="J229" s="0" t="s">
-        <v>840</v>
+        <v>748</v>
       </c>
       <c r="K229" s="0" t="s">
-        <v>1126</v>
+        <v>977</v>
       </c>
     </row>
     <row r="230">
@@ -11922,10 +11433,10 @@
         <v>4.71</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>840</v>
+        <v>748</v>
       </c>
       <c r="K230" s="0" t="s">
-        <v>1127</v>
+        <v>978</v>
       </c>
     </row>
     <row r="231">
@@ -11957,10 +11468,10 @@
         <v>1.99</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>841</v>
+        <v>749</v>
       </c>
       <c r="K231" s="0" t="s">
-        <v>1128</v>
+        <v>979</v>
       </c>
     </row>
     <row r="232">
@@ -11992,10 +11503,10 @@
         <v>2.5</v>
       </c>
       <c r="J232" s="0" t="s">
-        <v>841</v>
+        <v>749</v>
       </c>
       <c r="K232" s="0" t="s">
-        <v>1129</v>
+        <v>980</v>
       </c>
     </row>
     <row r="233">
@@ -12027,10 +11538,10 @@
         <v>3.1699999999999999</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>842</v>
+        <v>748</v>
       </c>
       <c r="K233" s="0" t="s">
-        <v>1130</v>
+        <v>981</v>
       </c>
     </row>
     <row r="234">
@@ -12062,10 +11573,10 @@
         <v>1.45</v>
       </c>
       <c r="J234" s="0" t="s">
-        <v>843</v>
+        <v>749</v>
       </c>
       <c r="K234" s="0" t="s">
-        <v>1131</v>
+        <v>982</v>
       </c>
     </row>
     <row r="235">
@@ -12097,10 +11608,10 @@
         <v>3.1600000000000001</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>844</v>
+        <v>748</v>
       </c>
       <c r="K235" s="0" t="s">
-        <v>1132</v>
+        <v>983</v>
       </c>
     </row>
     <row r="236">
@@ -12132,10 +11643,10 @@
         <v>1.3700000000000001</v>
       </c>
       <c r="J236" s="0" t="s">
-        <v>845</v>
+        <v>749</v>
       </c>
       <c r="K236" s="0" t="s">
-        <v>1133</v>
+        <v>984</v>
       </c>
     </row>
     <row r="237">
@@ -12167,10 +11678,10 @@
         <v>0.40000000000000002</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>846</v>
+        <v>748</v>
       </c>
       <c r="K237" s="0" t="s">
-        <v>1134</v>
+        <v>985</v>
       </c>
     </row>
     <row r="238">
@@ -12202,10 +11713,10 @@
         <v>1.3700000000000001</v>
       </c>
       <c r="J238" s="0" t="s">
-        <v>847</v>
+        <v>749</v>
       </c>
       <c r="K238" s="0" t="s">
-        <v>1135</v>
+        <v>986</v>
       </c>
     </row>
     <row r="239">
@@ -12237,10 +11748,10 @@
         <v>2.8999999999999999</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>848</v>
+        <v>748</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>1136</v>
+        <v>987</v>
       </c>
     </row>
     <row r="240">
@@ -12272,10 +11783,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="J240" s="0" t="s">
-        <v>848</v>
+        <v>748</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>1137</v>
+        <v>988</v>
       </c>
     </row>
     <row r="241">
@@ -12307,10 +11818,10 @@
         <v>2.48</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>848</v>
+        <v>748</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>1138</v>
+        <v>989</v>
       </c>
     </row>
     <row r="242">
@@ -12342,10 +11853,10 @@
         <v>1.97</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>848</v>
+        <v>748</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>1139</v>
+        <v>990</v>
       </c>
     </row>
     <row r="243">
@@ -12377,10 +11888,10 @@
         <v>3.1499999999999999</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>849</v>
+        <v>749</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>1140</v>
+        <v>991</v>
       </c>
     </row>
     <row r="244">
@@ -12412,10 +11923,10 @@
         <v>2.8900000000000001</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>849</v>
+        <v>749</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>1141</v>
+        <v>947</v>
       </c>
     </row>
     <row r="245">
@@ -12447,10 +11958,10 @@
         <v>1.73</v>
       </c>
       <c r="J245" s="0" t="s">
-        <v>849</v>
+        <v>749</v>
       </c>
       <c r="K245" s="0" t="s">
-        <v>1142</v>
+        <v>992</v>
       </c>
     </row>
     <row r="246">
@@ -12482,10 +11993,10 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="J246" s="0" t="s">
-        <v>849</v>
+        <v>749</v>
       </c>
       <c r="K246" s="0" t="s">
-        <v>1143</v>
+        <v>993</v>
       </c>
     </row>
     <row r="247">
@@ -12517,10 +12028,10 @@
         <v>2.6899999999999999</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>849</v>
+        <v>749</v>
       </c>
       <c r="K247" s="0" t="s">
-        <v>1144</v>
+        <v>994</v>
       </c>
     </row>
     <row r="248">
@@ -12552,10 +12063,10 @@
         <v>2.9199999999999999</v>
       </c>
       <c r="J248" s="0" t="s">
-        <v>850</v>
+        <v>748</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>1145</v>
+        <v>995</v>
       </c>
     </row>
     <row r="249">
@@ -12587,10 +12098,10 @@
         <v>2.6099999999999999</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>850</v>
+        <v>748</v>
       </c>
       <c r="K249" s="0" t="s">
-        <v>1146</v>
+        <v>996</v>
       </c>
     </row>
     <row r="250">
@@ -12622,10 +12133,10 @@
         <v>1.02</v>
       </c>
       <c r="J250" s="0" t="s">
-        <v>850</v>
+        <v>748</v>
       </c>
       <c r="K250" s="0" t="s">
-        <v>1147</v>
+        <v>997</v>
       </c>
     </row>
     <row r="251">
@@ -12657,10 +12168,10 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="J251" s="0" t="s">
-        <v>850</v>
+        <v>748</v>
       </c>
       <c r="K251" s="0" t="s">
-        <v>1148</v>
+        <v>998</v>
       </c>
     </row>
     <row r="252">
@@ -12692,10 +12203,10 @@
         <v>2.6099999999999999</v>
       </c>
       <c r="J252" s="0" t="s">
-        <v>851</v>
+        <v>749</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>1149</v>
+        <v>999</v>
       </c>
     </row>
     <row r="253">
@@ -12727,10 +12238,10 @@
         <v>1.04</v>
       </c>
       <c r="J253" s="0" t="s">
-        <v>852</v>
+        <v>748</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>1150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="254">
@@ -12762,10 +12273,10 @@
         <v>2.7200000000000002</v>
       </c>
       <c r="J254" s="0" t="s">
-        <v>853</v>
+        <v>749</v>
       </c>
       <c r="K254" s="0" t="s">
-        <v>1151</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="255">
@@ -12797,10 +12308,10 @@
         <v>1.5800000000000001</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>853</v>
+        <v>749</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>1152</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="256">
@@ -12832,10 +12343,10 @@
         <v>2.5</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>853</v>
+        <v>749</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>1153</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="257">
@@ -12867,10 +12378,10 @@
         <v>1.6399999999999999</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>853</v>
+        <v>749</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>1154</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="258">
@@ -12902,10 +12413,10 @@
         <v>1.52</v>
       </c>
       <c r="J258" s="0" t="s">
-        <v>854</v>
+        <v>748</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>1155</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="259">
@@ -12937,10 +12448,10 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="J259" s="0" t="s">
-        <v>854</v>
+        <v>748</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>1156</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="260">
@@ -12972,10 +12483,10 @@
         <v>1.7</v>
       </c>
       <c r="J260" s="0" t="s">
-        <v>854</v>
+        <v>748</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>1157</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="261">
@@ -13007,10 +12518,10 @@
         <v>1.0800000000000001</v>
       </c>
       <c r="J261" s="0" t="s">
-        <v>854</v>
+        <v>748</v>
       </c>
       <c r="K261" s="0" t="s">
-        <v>1158</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="262">
@@ -13042,10 +12553,10 @@
         <v>1.29</v>
       </c>
       <c r="J262" s="0" t="s">
-        <v>854</v>
+        <v>748</v>
       </c>
       <c r="K262" s="0" t="s">
-        <v>1159</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="263">
@@ -13077,10 +12588,10 @@
         <v>2.0800000000000001</v>
       </c>
       <c r="J263" s="0" t="s">
-        <v>855</v>
+        <v>749</v>
       </c>
       <c r="K263" s="0" t="s">
-        <v>1160</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="264">
@@ -13112,10 +12623,10 @@
         <v>0.79000000000000004</v>
       </c>
       <c r="J264" s="0" t="s">
-        <v>856</v>
+        <v>748</v>
       </c>
       <c r="K264" s="0" t="s">
-        <v>1161</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="265">
@@ -13147,10 +12658,10 @@
         <v>1.8400000000000001</v>
       </c>
       <c r="J265" s="0" t="s">
-        <v>856</v>
+        <v>748</v>
       </c>
       <c r="K265" s="0" t="s">
-        <v>1162</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="266">
@@ -13182,10 +12693,10 @@
         <v>1.6599999999999999</v>
       </c>
       <c r="J266" s="0" t="s">
-        <v>856</v>
+        <v>748</v>
       </c>
       <c r="K266" s="0" t="s">
-        <v>1163</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="267">
@@ -13217,10 +12728,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="J267" s="0" t="s">
-        <v>856</v>
+        <v>748</v>
       </c>
       <c r="K267" s="0" t="s">
-        <v>1164</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="268">
@@ -13252,10 +12763,10 @@
         <v>2.6800000000000002</v>
       </c>
       <c r="J268" s="0" t="s">
-        <v>857</v>
+        <v>749</v>
       </c>
       <c r="K268" s="0" t="s">
-        <v>1165</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="269">
@@ -13287,10 +12798,10 @@
         <v>1.8</v>
       </c>
       <c r="J269" s="0" t="s">
-        <v>857</v>
+        <v>749</v>
       </c>
       <c r="K269" s="0" t="s">
-        <v>1166</v>
+        <v>783</v>
       </c>
     </row>
     <row r="270">
@@ -13322,10 +12833,10 @@
         <v>1.3200000000000001</v>
       </c>
       <c r="J270" s="0" t="s">
-        <v>858</v>
+        <v>748</v>
       </c>
       <c r="K270" s="0" t="s">
-        <v>1167</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="271">
@@ -13357,10 +12868,10 @@
         <v>0.79000000000000004</v>
       </c>
       <c r="J271" s="0" t="s">
-        <v>858</v>
+        <v>748</v>
       </c>
       <c r="K271" s="0" t="s">
-        <v>1168</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="272">
@@ -13392,10 +12903,10 @@
         <v>2.27</v>
       </c>
       <c r="J272" s="0" t="s">
-        <v>858</v>
+        <v>748</v>
       </c>
       <c r="K272" s="0" t="s">
-        <v>1169</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="273">
@@ -13427,10 +12938,10 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J273" s="0" t="s">
-        <v>858</v>
+        <v>748</v>
       </c>
       <c r="K273" s="0" t="s">
-        <v>1170</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="274">
@@ -13462,10 +12973,10 @@
         <v>1.7</v>
       </c>
       <c r="J274" s="0" t="s">
-        <v>859</v>
+        <v>749</v>
       </c>
       <c r="K274" s="0" t="s">
-        <v>1171</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="275">
@@ -13497,10 +13008,10 @@
         <v>0.87</v>
       </c>
       <c r="J275" s="0" t="s">
-        <v>860</v>
+        <v>748</v>
       </c>
       <c r="K275" s="0" t="s">
-        <v>1172</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="276">
@@ -13532,10 +13043,10 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="J276" s="0" t="s">
-        <v>860</v>
+        <v>748</v>
       </c>
       <c r="K276" s="0" t="s">
-        <v>1173</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="277">
@@ -13567,10 +13078,10 @@
         <v>1.6899999999999999</v>
       </c>
       <c r="J277" s="0" t="s">
-        <v>861</v>
+        <v>749</v>
       </c>
       <c r="K277" s="0" t="s">
-        <v>1174</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="278">
@@ -13602,10 +13113,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J278" s="0" t="s">
-        <v>862</v>
+        <v>748</v>
       </c>
       <c r="K278" s="0" t="s">
-        <v>1175</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="279">
@@ -13637,10 +13148,10 @@
         <v>1.4099999999999999</v>
       </c>
       <c r="J279" s="0" t="s">
-        <v>862</v>
+        <v>748</v>
       </c>
       <c r="K279" s="0" t="s">
-        <v>1176</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="280">
@@ -13672,10 +13183,10 @@
         <v>1.95</v>
       </c>
       <c r="J280" s="0" t="s">
-        <v>863</v>
+        <v>749</v>
       </c>
       <c r="K280" s="0" t="s">
-        <v>1177</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="281">
@@ -13707,10 +13218,10 @@
         <v>2.0299999999999998</v>
       </c>
       <c r="J281" s="0" t="s">
-        <v>864</v>
+        <v>748</v>
       </c>
       <c r="K281" s="0" t="s">
-        <v>1178</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="282">
@@ -13742,10 +13253,10 @@
         <v>1.05</v>
       </c>
       <c r="J282" s="0" t="s">
-        <v>864</v>
+        <v>748</v>
       </c>
       <c r="K282" s="0" t="s">
-        <v>1179</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="283">
@@ -13777,10 +13288,10 @@
         <v>1.5</v>
       </c>
       <c r="J283" s="0" t="s">
-        <v>865</v>
+        <v>749</v>
       </c>
       <c r="K283" s="0" t="s">
-        <v>1180</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="284">
@@ -13812,10 +13323,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J284" s="0" t="s">
-        <v>865</v>
+        <v>749</v>
       </c>
       <c r="K284" s="0" t="s">
-        <v>1181</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="285">
@@ -13847,10 +13358,10 @@
         <v>1.22</v>
       </c>
       <c r="J285" s="0" t="s">
-        <v>865</v>
+        <v>749</v>
       </c>
       <c r="K285" s="0" t="s">
-        <v>1182</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="286">
@@ -13882,10 +13393,10 @@
         <v>1.3500000000000001</v>
       </c>
       <c r="J286" s="0" t="s">
-        <v>866</v>
+        <v>748</v>
       </c>
       <c r="K286" s="0" t="s">
-        <v>1183</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="287">
@@ -13917,10 +13428,10 @@
         <v>2.6400000000000001</v>
       </c>
       <c r="J287" s="0" t="s">
-        <v>867</v>
+        <v>749</v>
       </c>
       <c r="K287" s="0" t="s">
-        <v>1184</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="288">
@@ -13952,10 +13463,10 @@
         <v>0.83999999999999997</v>
       </c>
       <c r="J288" s="0" t="s">
-        <v>867</v>
+        <v>749</v>
       </c>
       <c r="K288" s="0" t="s">
-        <v>1185</v>
+        <v>948</v>
       </c>
     </row>
     <row r="289">
@@ -13987,10 +13498,10 @@
         <v>1.3899999999999999</v>
       </c>
       <c r="J289" s="0" t="s">
-        <v>867</v>
+        <v>749</v>
       </c>
       <c r="K289" s="0" t="s">
-        <v>1186</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="290">
@@ -14022,10 +13533,10 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="J290" s="0" t="s">
-        <v>868</v>
+        <v>748</v>
       </c>
       <c r="K290" s="0" t="s">
-        <v>1187</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="291">
@@ -14057,10 +13568,10 @@
         <v>1.5900000000000001</v>
       </c>
       <c r="J291" s="0" t="s">
-        <v>868</v>
+        <v>748</v>
       </c>
       <c r="K291" s="0" t="s">
-        <v>1188</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="292">
@@ -14092,10 +13603,10 @@
         <v>2.52</v>
       </c>
       <c r="J292" s="0" t="s">
-        <v>869</v>
+        <v>749</v>
       </c>
       <c r="K292" s="0" t="s">
-        <v>1189</v>
+        <v>961</v>
       </c>
     </row>
     <row r="293">
@@ -14127,10 +13638,10 @@
         <v>1.53</v>
       </c>
       <c r="J293" s="0" t="s">
-        <v>869</v>
+        <v>749</v>
       </c>
       <c r="K293" s="0" t="s">
-        <v>1190</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="294">
@@ -14162,10 +13673,10 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="J294" s="0" t="s">
-        <v>870</v>
+        <v>748</v>
       </c>
       <c r="K294" s="0" t="s">
-        <v>1191</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="295">
@@ -14197,10 +13708,10 @@
         <v>3.7799999999999998</v>
       </c>
       <c r="J295" s="0" t="s">
-        <v>870</v>
+        <v>748</v>
       </c>
       <c r="K295" s="0" t="s">
-        <v>1192</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="296">
@@ -14232,10 +13743,10 @@
         <v>1.6399999999999999</v>
       </c>
       <c r="J296" s="0" t="s">
-        <v>870</v>
+        <v>748</v>
       </c>
       <c r="K296" s="0" t="s">
-        <v>1193</v>
+        <v>853</v>
       </c>
     </row>
     <row r="297">
@@ -14267,10 +13778,10 @@
         <v>0.66000000000000003</v>
       </c>
       <c r="J297" s="0" t="s">
-        <v>870</v>
+        <v>748</v>
       </c>
       <c r="K297" s="0" t="s">
-        <v>1194</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="298">
@@ -14302,10 +13813,10 @@
         <v>1.23</v>
       </c>
       <c r="J298" s="0" t="s">
-        <v>871</v>
+        <v>749</v>
       </c>
       <c r="K298" s="0" t="s">
-        <v>1195</v>
+        <v>806</v>
       </c>
     </row>
     <row r="299">
@@ -14337,10 +13848,10 @@
         <v>0.91000000000000003</v>
       </c>
       <c r="J299" s="0" t="s">
-        <v>872</v>
+        <v>748</v>
       </c>
       <c r="K299" s="0" t="s">
-        <v>1196</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="300">
@@ -14372,10 +13883,10 @@
         <v>1.46</v>
       </c>
       <c r="J300" s="0" t="s">
-        <v>872</v>
+        <v>748</v>
       </c>
       <c r="K300" s="0" t="s">
-        <v>1197</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="301">
@@ -14407,10 +13918,10 @@
         <v>1.54</v>
       </c>
       <c r="J301" s="0" t="s">
-        <v>872</v>
+        <v>748</v>
       </c>
       <c r="K301" s="0" t="s">
-        <v>1198</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="302">
@@ -14442,10 +13953,10 @@
         <v>1.53</v>
       </c>
       <c r="J302" s="0" t="s">
-        <v>872</v>
+        <v>748</v>
       </c>
       <c r="K302" s="0" t="s">
-        <v>1199</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="303">
@@ -14477,10 +13988,10 @@
         <v>1.5800000000000001</v>
       </c>
       <c r="J303" s="0" t="s">
-        <v>872</v>
+        <v>748</v>
       </c>
       <c r="K303" s="0" t="s">
-        <v>1200</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="304">
@@ -14512,10 +14023,10 @@
         <v>1.47</v>
       </c>
       <c r="J304" s="0" t="s">
-        <v>873</v>
+        <v>749</v>
       </c>
       <c r="K304" s="0" t="s">
-        <v>1201</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="305">
@@ -14547,10 +14058,10 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="J305" s="0" t="s">
-        <v>874</v>
+        <v>748</v>
       </c>
       <c r="K305" s="0" t="s">
-        <v>1202</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="306">
@@ -14582,10 +14093,10 @@
         <v>2.1699999999999999</v>
       </c>
       <c r="J306" s="0" t="s">
-        <v>874</v>
+        <v>748</v>
       </c>
       <c r="K306" s="0" t="s">
-        <v>1203</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="307">
@@ -14617,10 +14128,10 @@
         <v>1.47</v>
       </c>
       <c r="J307" s="0" t="s">
-        <v>874</v>
+        <v>748</v>
       </c>
       <c r="K307" s="0" t="s">
-        <v>1204</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="308">
@@ -14652,10 +14163,10 @@
         <v>1.79</v>
       </c>
       <c r="J308" s="0" t="s">
-        <v>875</v>
+        <v>749</v>
       </c>
       <c r="K308" s="0" t="s">
-        <v>1205</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="309">
@@ -14687,10 +14198,10 @@
         <v>3.6299999999999999</v>
       </c>
       <c r="J309" s="0" t="s">
-        <v>875</v>
+        <v>749</v>
       </c>
       <c r="K309" s="0" t="s">
-        <v>1206</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="310">
@@ -14722,10 +14233,10 @@
         <v>0.91000000000000003</v>
       </c>
       <c r="J310" s="0" t="s">
-        <v>876</v>
+        <v>748</v>
       </c>
       <c r="K310" s="0" t="s">
-        <v>1207</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="311">
@@ -14757,10 +14268,10 @@
         <v>1.77</v>
       </c>
       <c r="J311" s="0" t="s">
-        <v>877</v>
+        <v>749</v>
       </c>
       <c r="K311" s="0" t="s">
-        <v>1208</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="312">
@@ -14792,10 +14303,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J312" s="0" t="s">
-        <v>877</v>
+        <v>749</v>
       </c>
       <c r="K312" s="0" t="s">
-        <v>1209</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="313">
@@ -14827,10 +14338,10 @@
         <v>1.75</v>
       </c>
       <c r="J313" s="0" t="s">
-        <v>877</v>
+        <v>749</v>
       </c>
       <c r="K313" s="0" t="s">
-        <v>1210</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="314">
@@ -14862,10 +14373,10 @@
         <v>0.70999999999999996</v>
       </c>
       <c r="J314" s="0" t="s">
-        <v>878</v>
+        <v>748</v>
       </c>
       <c r="K314" s="0" t="s">
-        <v>1211</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="315">
@@ -14897,10 +14408,10 @@
         <v>1.24</v>
       </c>
       <c r="J315" s="0" t="s">
-        <v>878</v>
+        <v>748</v>
       </c>
       <c r="K315" s="0" t="s">
-        <v>1212</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="316">
@@ -14932,10 +14443,10 @@
         <v>0.59999999999999998</v>
       </c>
       <c r="J316" s="0" t="s">
-        <v>878</v>
+        <v>748</v>
       </c>
       <c r="K316" s="0" t="s">
-        <v>1213</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="317">
@@ -14967,10 +14478,10 @@
         <v>0.41999999999999998</v>
       </c>
       <c r="J317" s="0" t="s">
-        <v>878</v>
+        <v>748</v>
       </c>
       <c r="K317" s="0" t="s">
-        <v>1214</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="318">
@@ -15002,10 +14513,10 @@
         <v>0.75</v>
       </c>
       <c r="J318" s="0" t="s">
-        <v>878</v>
+        <v>748</v>
       </c>
       <c r="K318" s="0" t="s">
-        <v>1215</v>
+        <v>985</v>
       </c>
     </row>
     <row r="319">
@@ -15037,10 +14548,10 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J319" s="0" t="s">
-        <v>879</v>
+        <v>749</v>
       </c>
       <c r="K319" s="0" t="s">
-        <v>1216</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="320">
@@ -15072,10 +14583,10 @@
         <v>1.77</v>
       </c>
       <c r="J320" s="0" t="s">
-        <v>879</v>
+        <v>749</v>
       </c>
       <c r="K320" s="0" t="s">
-        <v>1217</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="321">
@@ -15107,10 +14618,10 @@
         <v>0.92000000000000004</v>
       </c>
       <c r="J321" s="0" t="s">
-        <v>880</v>
+        <v>748</v>
       </c>
       <c r="K321" s="0" t="s">
-        <v>1218</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="322">
@@ -15142,10 +14653,10 @@
         <v>1.77</v>
       </c>
       <c r="J322" s="0" t="s">
-        <v>880</v>
+        <v>748</v>
       </c>
       <c r="K322" s="0" t="s">
-        <v>1219</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="323">
@@ -15177,10 +14688,10 @@
         <v>1.5600000000000001</v>
       </c>
       <c r="J323" s="0" t="s">
-        <v>881</v>
+        <v>749</v>
       </c>
       <c r="K323" s="0" t="s">
-        <v>1220</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="324">
@@ -15212,10 +14723,10 @@
         <v>0.94999999999999996</v>
       </c>
       <c r="J324" s="0" t="s">
-        <v>881</v>
+        <v>749</v>
       </c>
       <c r="K324" s="0" t="s">
-        <v>1221</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="325">
@@ -15247,10 +14758,10 @@
         <v>0.96999999999999997</v>
       </c>
       <c r="J325" s="0" t="s">
-        <v>882</v>
+        <v>748</v>
       </c>
       <c r="K325" s="0" t="s">
-        <v>1222</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="326">
@@ -15282,10 +14793,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="J326" s="0" t="s">
-        <v>882</v>
+        <v>748</v>
       </c>
       <c r="K326" s="0" t="s">
-        <v>1223</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="327">
@@ -15317,10 +14828,10 @@
         <v>1.02</v>
       </c>
       <c r="J327" s="0" t="s">
-        <v>883</v>
+        <v>749</v>
       </c>
       <c r="K327" s="0" t="s">
-        <v>1224</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="328">
@@ -15352,10 +14863,10 @@
         <v>0.93000000000000005</v>
       </c>
       <c r="J328" s="0" t="s">
-        <v>883</v>
+        <v>749</v>
       </c>
       <c r="K328" s="0" t="s">
-        <v>1225</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="329">
@@ -15387,10 +14898,10 @@
         <v>1.73</v>
       </c>
       <c r="J329" s="0" t="s">
-        <v>883</v>
+        <v>749</v>
       </c>
       <c r="K329" s="0" t="s">
-        <v>1226</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="330">
@@ -15422,10 +14933,10 @@
         <v>0.68999999999999995</v>
       </c>
       <c r="J330" s="0" t="s">
-        <v>884</v>
+        <v>748</v>
       </c>
       <c r="K330" s="0" t="s">
-        <v>1227</v>
+        <v>935</v>
       </c>
     </row>
     <row r="331">
@@ -15457,10 +14968,10 @@
         <v>1.21</v>
       </c>
       <c r="J331" s="0" t="s">
-        <v>884</v>
+        <v>748</v>
       </c>
       <c r="K331" s="0" t="s">
-        <v>1228</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="332">
@@ -15492,10 +15003,10 @@
         <v>1.45</v>
       </c>
       <c r="J332" s="0" t="s">
-        <v>884</v>
+        <v>748</v>
       </c>
       <c r="K332" s="0" t="s">
-        <v>1229</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="333">
@@ -15527,10 +15038,10 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="J333" s="0" t="s">
-        <v>885</v>
+        <v>749</v>
       </c>
       <c r="K333" s="0" t="s">
-        <v>1230</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="334">
@@ -15562,10 +15073,10 @@
         <v>1.8300000000000001</v>
       </c>
       <c r="J334" s="0" t="s">
-        <v>885</v>
+        <v>749</v>
       </c>
       <c r="K334" s="0" t="s">
-        <v>1231</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="335">
@@ -15597,10 +15108,10 @@
         <v>1.5800000000000001</v>
       </c>
       <c r="J335" s="0" t="s">
-        <v>885</v>
+        <v>749</v>
       </c>
       <c r="K335" s="0" t="s">
-        <v>1232</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="336">
@@ -15632,10 +15143,10 @@
         <v>1.8</v>
       </c>
       <c r="J336" s="0" t="s">
-        <v>885</v>
+        <v>749</v>
       </c>
       <c r="K336" s="0" t="s">
-        <v>1233</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="337">
@@ -15667,10 +15178,10 @@
         <v>0.89000000000000001</v>
       </c>
       <c r="J337" s="0" t="s">
-        <v>886</v>
+        <v>748</v>
       </c>
       <c r="K337" s="0" t="s">
-        <v>1234</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="338">
@@ -15702,10 +15213,10 @@
         <v>1.71</v>
       </c>
       <c r="J338" s="0" t="s">
-        <v>887</v>
+        <v>749</v>
       </c>
       <c r="K338" s="0" t="s">
-        <v>1235</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="339">
@@ -15737,10 +15248,10 @@
         <v>1.04</v>
       </c>
       <c r="J339" s="0" t="s">
-        <v>887</v>
+        <v>749</v>
       </c>
       <c r="K339" s="0" t="s">
-        <v>1236</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="340">
@@ -15772,10 +15283,10 @@
         <v>0.68999999999999995</v>
       </c>
       <c r="J340" s="0" t="s">
-        <v>888</v>
+        <v>748</v>
       </c>
       <c r="K340" s="0" t="s">
-        <v>1237</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="341">
@@ -15807,10 +15318,10 @@
         <v>0.68000000000000005</v>
       </c>
       <c r="J341" s="0" t="s">
-        <v>888</v>
+        <v>748</v>
       </c>
       <c r="K341" s="0" t="s">
-        <v>1238</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="342">
@@ -15842,10 +15353,10 @@
         <v>0.75</v>
       </c>
       <c r="J342" s="0" t="s">
-        <v>888</v>
+        <v>748</v>
       </c>
       <c r="K342" s="0" t="s">
-        <v>1239</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="343">
@@ -15877,10 +15388,10 @@
         <v>1.46</v>
       </c>
       <c r="J343" s="0" t="s">
-        <v>889</v>
+        <v>749</v>
       </c>
       <c r="K343" s="0" t="s">
-        <v>1240</v>
+        <v>797</v>
       </c>
     </row>
     <row r="344">
@@ -15912,10 +15423,10 @@
         <v>0.65000000000000002</v>
       </c>
       <c r="J344" s="0" t="s">
-        <v>890</v>
+        <v>748</v>
       </c>
       <c r="K344" s="0" t="s">
-        <v>1241</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="345">
@@ -15947,10 +15458,10 @@
         <v>0.53000000000000003</v>
       </c>
       <c r="J345" s="0" t="s">
-        <v>890</v>
+        <v>748</v>
       </c>
       <c r="K345" s="0" t="s">
-        <v>1242</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="346">
@@ -15982,10 +15493,10 @@
         <v>1.49</v>
       </c>
       <c r="J346" s="0" t="s">
-        <v>891</v>
+        <v>749</v>
       </c>
       <c r="K346" s="0" t="s">
-        <v>1243</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="347">
@@ -16017,10 +15528,10 @@
         <v>1.6399999999999999</v>
       </c>
       <c r="J347" s="0" t="s">
-        <v>891</v>
+        <v>749</v>
       </c>
       <c r="K347" s="0" t="s">
-        <v>1244</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="348">
@@ -16052,10 +15563,10 @@
         <v>0.81000000000000005</v>
       </c>
       <c r="J348" s="0" t="s">
-        <v>892</v>
+        <v>748</v>
       </c>
       <c r="K348" s="0" t="s">
-        <v>1245</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="349">
@@ -16087,10 +15598,10 @@
         <v>0.82999999999999996</v>
       </c>
       <c r="J349" s="0" t="s">
-        <v>892</v>
+        <v>748</v>
       </c>
       <c r="K349" s="0" t="s">
-        <v>1246</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="350">
@@ -16122,10 +15633,10 @@
         <v>1.23</v>
       </c>
       <c r="J350" s="0" t="s">
-        <v>892</v>
+        <v>748</v>
       </c>
       <c r="K350" s="0" t="s">
-        <v>1247</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="351">
@@ -16157,10 +15668,10 @@
         <v>1.3500000000000001</v>
       </c>
       <c r="J351" s="0" t="s">
-        <v>893</v>
+        <v>749</v>
       </c>
       <c r="K351" s="0" t="s">
-        <v>1248</v>
+        <v>950</v>
       </c>
     </row>
     <row r="352">
@@ -16192,10 +15703,10 @@
         <v>0.97999999999999998</v>
       </c>
       <c r="J352" s="0" t="s">
-        <v>894</v>
+        <v>748</v>
       </c>
       <c r="K352" s="0" t="s">
-        <v>1249</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="353">
@@ -16227,10 +15738,10 @@
         <v>1.6599999999999999</v>
       </c>
       <c r="J353" s="0" t="s">
-        <v>894</v>
+        <v>748</v>
       </c>
       <c r="K353" s="0" t="s">
-        <v>1250</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="354">
@@ -16262,10 +15773,10 @@
         <v>1.3300000000000001</v>
       </c>
       <c r="J354" s="0" t="s">
-        <v>895</v>
+        <v>749</v>
       </c>
       <c r="K354" s="0" t="s">
-        <v>1251</v>
+        <v>921</v>
       </c>
     </row>
     <row r="355">
@@ -16297,10 +15808,10 @@
         <v>1.78</v>
       </c>
       <c r="J355" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K355" s="0" t="s">
-        <v>1252</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="356">
@@ -16332,10 +15843,10 @@
         <v>0.79000000000000004</v>
       </c>
       <c r="J356" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K356" s="0" t="s">
-        <v>1253</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="357">
@@ -16367,10 +15878,10 @@
         <v>0.37</v>
       </c>
       <c r="J357" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K357" s="0" t="s">
-        <v>1254</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="358">
@@ -16402,10 +15913,10 @@
         <v>1.3500000000000001</v>
       </c>
       <c r="J358" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K358" s="0" t="s">
-        <v>1255</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="359">
@@ -16437,10 +15948,10 @@
         <v>1.04</v>
       </c>
       <c r="J359" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K359" s="0" t="s">
-        <v>1256</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="360">
@@ -16470,10 +15981,10 @@
         <v>0</v>
       </c>
       <c r="J360" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K360" s="0" t="s">
-        <v>1257</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="361">
@@ -16503,10 +16014,10 @@
         <v>0</v>
       </c>
       <c r="J361" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K361" s="0" t="s">
-        <v>1258</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="362">
@@ -16536,10 +16047,10 @@
         <v>0</v>
       </c>
       <c r="J362" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K362" s="0" t="s">
-        <v>1259</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="363">
@@ -16569,10 +16080,10 @@
         <v>0</v>
       </c>
       <c r="J363" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K363" s="0" t="s">
-        <v>1260</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="364">
@@ -16602,10 +16113,10 @@
         <v>0</v>
       </c>
       <c r="J364" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K364" s="0" t="s">
-        <v>1261</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="365">
@@ -16635,10 +16146,10 @@
         <v>0</v>
       </c>
       <c r="J365" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K365" s="0" t="s">
-        <v>1262</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="366">
@@ -16668,10 +16179,10 @@
         <v>0</v>
       </c>
       <c r="J366" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K366" s="0" t="s">
-        <v>1263</v>
+        <v>854</v>
       </c>
     </row>
     <row r="367">
@@ -16701,10 +16212,10 @@
         <v>0</v>
       </c>
       <c r="J367" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K367" s="0" t="s">
-        <v>1264</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="368">
@@ -16734,10 +16245,10 @@
         <v>0</v>
       </c>
       <c r="J368" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K368" s="0" t="s">
-        <v>1265</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="369">
@@ -16767,10 +16278,10 @@
         <v>0</v>
       </c>
       <c r="J369" s="0" t="s">
-        <v>896</v>
+        <v>748</v>
       </c>
       <c r="K369" s="0" t="s">
-        <v>1266</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="370">
@@ -16802,10 +16313,10 @@
         <v>0</v>
       </c>
       <c r="J370" s="0" t="s">
-        <v>897</v>
+        <v>749</v>
       </c>
       <c r="K370" s="0" t="s">
-        <v>1267</v>
+        <v>1103</v>
       </c>
     </row>
   </sheetData>
